--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrooggioni/Sites/GitHub/shinyApps/ITINERIS-EVsVRE/static_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITINERIS-EVsVRE\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA158D-3FCF-CA45-84C5-3A9FC6B9CAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85DABC-E809-4310-9F36-D0F5FC34C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>http://www.get-it.it/sensors/getit.lteritalia.it/procedure/noOwnerDeclared/noModelDeclared/noSerialNumberDeclared/1286194C-A5DF-11DF-8ED7-1602DFD72097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collelongo-Selva Piana </t>
+  </si>
+  <si>
+    <t>https://deims.org/9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
+  </si>
+  <si>
+    <t>9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
+  </si>
+  <si>
+    <t>collelongo</t>
   </si>
 </sst>
 </file>
@@ -592,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -611,9 +623,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -916,21 +929,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="48.6640625" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -953,7 +966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -977,7 +990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -998,6 +1011,30 @@
       </c>
       <c r="G3" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1018,13 +1055,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1047,7 +1084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1093,7 +1130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1116,7 +1153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1136,7 +1173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1159,7 +1196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1182,7 +1219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1205,7 +1242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1228,7 +1265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1251,7 +1288,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1271,7 +1308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1294,7 +1331,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -1317,7 +1354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1364,22 +1401,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="9" width="44.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="9" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1414,7 +1451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1443,7 +1480,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1473,7 +1510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITINERIS-EVsVRE\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ITINERIS\Server\ITINERIS-EVsVRE\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85DABC-E809-4310-9F36-D0F5FC34C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FD7C6-090D-4EDE-86BE-F864004CEDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
     <sheet name="EV" sheetId="2" r:id="rId2"/>
     <sheet name="datasets" sheetId="3" r:id="rId3"/>
+    <sheet name="Sites_EBVDataPortal" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="165">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -517,12 +518,165 @@
   <si>
     <t>collelongo</t>
   </si>
+  <si>
+    <t>id_ev</t>
+  </si>
+  <si>
+    <t>name_dp</t>
+  </si>
+  <si>
+    <t>id_dp</t>
+  </si>
+  <si>
+    <t>name_ev</t>
+  </si>
+  <si>
+    <t>Local bird diversity (cSAR/BES-SIM)</t>
+  </si>
+  <si>
+    <t>Forest loss from 2000 to 2020</t>
+  </si>
+  <si>
+    <t>Predicted suitability for EUNIS habitat types</t>
+  </si>
+  <si>
+    <t>Relative Magnitude of Fragmentation (RMF)</t>
+  </si>
+  <si>
+    <t>Global habitat availability for mammals from 2015-2055</t>
+  </si>
+  <si>
+    <t>Local terrestrial diversity (PREDICTS)</t>
+  </si>
+  <si>
+    <t>Habitat availability for African great apes</t>
+  </si>
+  <si>
+    <t>Global forest cover 2000</t>
+  </si>
+  <si>
+    <t>Vegetation Phenology in Finland</t>
+  </si>
+  <si>
+    <t>Canopy Chlorophyll Content for the Netherlands</t>
+  </si>
+  <si>
+    <t>Predicted suitability for EUNIS habitat types (100m resolution) for EU27 countries</t>
+  </si>
+  <si>
+    <t>Forest cover loss for Finland (e-shape, 0.00075 degrees)</t>
+  </si>
+  <si>
+    <t>Forest cover loss for Finland (e-shape, 0.0025 degrees)</t>
+  </si>
+  <si>
+    <t>Forest cover loss for Finland (e-shape, 0.0075 degrees)</t>
+  </si>
+  <si>
+    <t>Forest cover loss for Finland (e-shape, 0.025 degrees)</t>
+  </si>
+  <si>
+    <t>Forest cover loss for Finland (e-shape, 0.00025 degrees)</t>
+  </si>
+  <si>
+    <t>Global trends in biodiversity (BES-SIM GLOBIO)</t>
+  </si>
+  <si>
+    <t>Global trends in biodiversity (BES-SIM PREDICTS)</t>
+  </si>
+  <si>
+    <t>Global trends in biodiversity (BES-SIM cSAR-IIASA)</t>
+  </si>
+  <si>
+    <t>Global trends in biodiversity (BES-SIM cSAR-iDiv)</t>
+  </si>
+  <si>
+    <t>Global trends in biodiversity (BES-SIM AIM)</t>
+  </si>
+  <si>
+    <t>Tropical Andes macrogroup ecosystem extent</t>
+  </si>
+  <si>
+    <t>Tropical Andes formation ecosystem extent</t>
+  </si>
+  <si>
+    <t>Nocturnal bird migration across western Europe</t>
+  </si>
+  <si>
+    <t>Canopy Chlorophyll Content for the Bavarian Forest National Park</t>
+  </si>
+  <si>
+    <t>Historical local species richness (PREDICTS)</t>
+  </si>
+  <si>
+    <t>Net Primary Productivity for Bavarian Forest National Park</t>
+  </si>
+  <si>
+    <t>Net Primary Productivity in Europe 2015</t>
+  </si>
+  <si>
+    <t>Global trends in ecosystem services (BES-SIM LPJ-GUESS)</t>
+  </si>
+  <si>
+    <t>Global trends in ecosystem services (BES-SIM LPJ)</t>
+  </si>
+  <si>
+    <t>Global trends in ecosystem services (BES-SIM CABLE POP)</t>
+  </si>
+  <si>
+    <t>Global trends in ecosystem services (BES-SIM InVEST)</t>
+  </si>
+  <si>
+    <t>Global trends in ecosystem services (BES-SIM GLOBIO-ES)</t>
+  </si>
+  <si>
+    <t>Net Primary Productivity in Europe 2015 (monthly)</t>
+  </si>
+  <si>
+    <t>Tropical Andes species richness by macrogroup</t>
+  </si>
+  <si>
+    <t>Global trends in biodiversity (BES-SIM INSIGHTS) </t>
+  </si>
+  <si>
+    <t>Pasture production model</t>
+  </si>
+  <si>
+    <t>Post-fire legacies management and snow cover</t>
+  </si>
+  <si>
+    <t>Crop production for the Sierra Nevada National Park</t>
+  </si>
+  <si>
+    <t>Americas species richness by macrogroup </t>
+  </si>
+  <si>
+    <t>Distribution of European habitat types of the Habitats Directive (2018)</t>
+  </si>
+  <si>
+    <t>Distribution of European species of the Habitats Directive (2018)</t>
+  </si>
+  <si>
+    <t>Distribution of European bird species of the Birds Directive (2018)</t>
+  </si>
+  <si>
+    <t>Opportunity cost estimates for spatial conservation prioritisation across Europe</t>
+  </si>
+  <si>
+    <t>Breeding distribution of farmland birds (EBBA LIVE)</t>
+  </si>
+  <si>
+    <t>Occurrence Metrics for the Birds Directive Annex I Species in EU27: A 10 km prototype using GBIF occurrence cubes</t>
+  </si>
+  <si>
+    <t>Occurrence Metrics for Invasive Alien Species of Union Concern in EU27: A 10 km prototype using GBIF occurrence cubes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +727,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -604,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -624,6 +784,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -931,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1545,4 +1706,665 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D461525-DA5A-4C1D-AA1E-82B3B07C304E}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="108.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="str">
+        <f>+VLOOKUP(C2,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>+VLOOKUP(C3,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="9" t="e">
+        <f>+VLOOKUP(C4,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="9" t="e">
+        <f>+VLOOKUP(C5,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="9" t="e">
+        <f>+VLOOKUP(C6,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>+VLOOKUP(C7,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f>+VLOOKUP(C8,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f>+VLOOKUP(C9,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f>+VLOOKUP(C10,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Terrestrial ecosystem phenology</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="9" t="e">
+        <f>+VLOOKUP(C11,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="9" t="e">
+        <f>+VLOOKUP(C12,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>22</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f>+VLOOKUP(C13,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="9" t="str">
+        <f>+VLOOKUP(C14,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>24</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="9" t="str">
+        <f>+VLOOKUP(C15,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="9" t="str">
+        <f>+VLOOKUP(C16,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>26</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f>+VLOOKUP(C17,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>27</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="9" t="e">
+        <f>+VLOOKUP(C18,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="9" t="e">
+        <f>+VLOOKUP(C19,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="9" t="e">
+        <f>+VLOOKUP(C20,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="9" t="e">
+        <f>+VLOOKUP(C21,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>31</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="9" t="e">
+        <f>+VLOOKUP(C22,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f>+VLOOKUP(C23,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>38</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f>+VLOOKUP(C24,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>42</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="9" t="str">
+        <f>+VLOOKUP(C25,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>53</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="9" t="e">
+        <f>+VLOOKUP(C26,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>55</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="9" t="e">
+        <f>+VLOOKUP(C27,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>58</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f>+VLOOKUP(C28,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Terrestrial ecosystem productivity</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>59</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="9" t="e">
+        <f>+VLOOKUP(C29,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>60</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="9" t="e">
+        <f>+VLOOKUP(C30,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>61</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="9" t="e">
+        <f>+VLOOKUP(C31,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>62</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="9" t="e">
+        <f>+VLOOKUP(C32,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>63</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="9" t="e">
+        <f>+VLOOKUP(C33,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>64</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="9" t="e">
+        <f>+VLOOKUP(C34,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>66</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="9" t="e">
+        <f>+VLOOKUP(C35,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>67</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="9" t="str">
+        <f>+VLOOKUP(C36,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>68</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="9" t="e">
+        <f>+VLOOKUP(C37,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>69</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="9" t="str">
+        <f>+VLOOKUP(C38,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Terrestrial ecosystem productivity</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>70</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="9" t="e">
+        <f>+VLOOKUP(C39,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>72</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="9" t="str">
+        <f>+VLOOKUP(C40,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Terrestrial ecosystem productivity</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>73</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="9" t="e">
+        <f>+VLOOKUP(C41,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>75</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="9" t="e">
+        <f>+VLOOKUP(C42,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>76</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="9" t="e">
+        <f>+VLOOKUP(C43,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>77</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="9" t="str">
+        <f>+VLOOKUP(C44,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>78</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="9" t="e">
+        <f>+VLOOKUP(C45,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>79</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="9" t="str">
+        <f>+VLOOKUP(C46,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>82</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="9" t="str">
+        <f>+VLOOKUP(C47,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>Species distributions of selected terrestrial plants</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>83</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="9" t="e">
+        <f>+VLOOKUP(C48,EV!$A$1:$B$14,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrooggioni/Sites/GitHub/shinyApps/ITINERIS-EVsVRE/static_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itineris\ITINERIS-EVsVRE\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA158D-3FCF-CA45-84C5-3A9FC6B9CAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD2688-080E-4004-B365-BD4576497937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="181">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -452,15 +450,9 @@
     <t>Clorofilla da sensore su boa E1 LTER ITALIA</t>
   </si>
   <si>
-    <t>static_data/E1_Chl_2022.dat</t>
-  </si>
-  <si>
     <t>PR_PF_6903783.csv</t>
   </si>
   <si>
-    <t>static_data/PR_PF_6903783.csv</t>
-  </si>
-  <si>
     <t>Profili da Euro Argo Float 6903783</t>
   </si>
   <si>
@@ -504,13 +496,232 @@
   </si>
   <si>
     <t>http://www.get-it.it/sensors/getit.lteritalia.it/procedure/noOwnerDeclared/noModelDeclared/noSerialNumberDeclared/1286194C-A5DF-11DF-8ED7-1602DFD72097</t>
+  </si>
+  <si>
+    <t>9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
+  </si>
+  <si>
+    <t>surface temperature</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>species distribution of terrestrial plants</t>
+  </si>
+  <si>
+    <t>Daily mean air temperature (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily minimum air temperatrure (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily maximum air temperature (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily precipitation (2000-2024) Collelongo</t>
+  </si>
+  <si>
+    <t>Daily mean air relative humidity (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Corine Land Cover 2018 Collelongo</t>
+  </si>
+  <si>
+    <t>freshwater ecosystem productivity</t>
+  </si>
+  <si>
+    <t>ocean, biochemical: ocean colour</t>
+  </si>
+  <si>
+    <t>terrestrial ecosystem productivity</t>
+  </si>
+  <si>
+    <t>Net primary production (2000-2020) Collelongo</t>
+  </si>
+  <si>
+    <t>NPP_EEA_Collelongo.tif</t>
+  </si>
+  <si>
+    <t>CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</t>
+  </si>
+  <si>
+    <t>EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6869436a-80f4-4c6d-954b-a730b348d7ce </t>
+  </si>
+  <si>
+    <t>Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>rasterTS</t>
+  </si>
+  <si>
+    <t>shapefile</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tg_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tn_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tx_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/rr_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/hu_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/corine-land-cover/clc2018#download</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Date of maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>https://sdi.eea.europa.eu/data/28d6b823-e2fd-4bf4-a6aa-cb6a359c52da</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8402932/files/OCCCIv6_4KM_PHENOLOGY_CHLOR_A.nc?download=1</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/preprints/essd-2024-21/essd-2024-21.pdf</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2017JD028200</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/corine-land-cover</t>
+  </si>
+  <si>
+    <t>https://www.eea.europa.eu/en/datahub/datahubitem-view/47e902f8-8237-415b-91fc-6d1522b11417</t>
+  </si>
+  <si>
+    <t>Copernicus</t>
+  </si>
+  <si>
+    <t>EEA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +772,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -592,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -611,9 +828,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,9 +848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -670,9 +888,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,9 +923,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,9 +975,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -922,15 +1174,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="33.33203125" customWidth="1"/>
     <col min="6" max="6" width="48.6640625" customWidth="1"/>
     <col min="7" max="7" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -953,7 +1205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -977,7 +1229,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1015,16 +1267,16 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B5" activeCellId="1" sqref="B2 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1047,7 +1299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1093,7 +1345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1116,7 +1368,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1136,7 +1388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1159,7 +1411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1182,7 +1434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1205,7 +1457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1228,7 +1480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1251,7 +1503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1271,7 +1523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1294,7 +1546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -1317,7 +1569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1362,24 +1614,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="9" width="44.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="116.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="143.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="152.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1387,7 +1643,7 @@
         <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>85</v>
@@ -1405,16 +1661,16 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1430,82 +1686,887 @@
       <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
-        <v>92</v>
+      <c r="F2" s="8" t="str">
+        <f>+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",E2)</f>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
       </c>
       <c r="G2" t="s">
         <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
       <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f t="shared" ref="F3:F28" si="0">+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",E3)</f>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
       <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
         <v>105</v>
       </c>
-      <c r="G4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>109</v>
       </c>
-      <c r="J4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/NPP_EEA_Collelongo.tif</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{553D2B69-5BE6-874E-AC5E-A635C6328440}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{2F590B1D-8210-384E-8018-FB4572E03C72}"/>
     <hyperlink ref="I4" r:id="rId3" xr:uid="{1474173C-E4BA-6A49-BB1E-5A62B026D73E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ITINERIS\Server\ITINERIS-EVsVRE\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itineris\ITINERIS-EVsVRE\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FD7C6-090D-4EDE-86BE-F864004CEDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD2688-080E-4004-B365-BD4576497937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
     <sheet name="EV" sheetId="2" r:id="rId2"/>
     <sheet name="datasets" sheetId="3" r:id="rId3"/>
-    <sheet name="Sites_EBVDataPortal" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="181">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -453,15 +450,9 @@
     <t>Clorofilla da sensore su boa E1 LTER ITALIA</t>
   </si>
   <si>
-    <t>static_data/E1_Chl_2022.dat</t>
-  </si>
-  <si>
     <t>PR_PF_6903783.csv</t>
   </si>
   <si>
-    <t>static_data/PR_PF_6903783.csv</t>
-  </si>
-  <si>
     <t>Profili da Euro Argo Float 6903783</t>
   </si>
   <si>
@@ -507,169 +498,223 @@
     <t>http://www.get-it.it/sensors/getit.lteritalia.it/procedure/noOwnerDeclared/noModelDeclared/noSerialNumberDeclared/1286194C-A5DF-11DF-8ED7-1602DFD72097</t>
   </si>
   <si>
-    <t xml:space="preserve">Collelongo-Selva Piana </t>
-  </si>
-  <si>
-    <t>https://deims.org/9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
-  </si>
-  <si>
     <t>9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
   </si>
   <si>
-    <t>collelongo</t>
-  </si>
-  <si>
-    <t>id_ev</t>
-  </si>
-  <si>
-    <t>name_dp</t>
-  </si>
-  <si>
-    <t>id_dp</t>
-  </si>
-  <si>
-    <t>name_ev</t>
-  </si>
-  <si>
-    <t>Local bird diversity (cSAR/BES-SIM)</t>
-  </si>
-  <si>
-    <t>Forest loss from 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Predicted suitability for EUNIS habitat types</t>
-  </si>
-  <si>
-    <t>Relative Magnitude of Fragmentation (RMF)</t>
-  </si>
-  <si>
-    <t>Global habitat availability for mammals from 2015-2055</t>
-  </si>
-  <si>
-    <t>Local terrestrial diversity (PREDICTS)</t>
-  </si>
-  <si>
-    <t>Habitat availability for African great apes</t>
-  </si>
-  <si>
-    <t>Global forest cover 2000</t>
-  </si>
-  <si>
-    <t>Vegetation Phenology in Finland</t>
-  </si>
-  <si>
-    <t>Canopy Chlorophyll Content for the Netherlands</t>
-  </si>
-  <si>
-    <t>Predicted suitability for EUNIS habitat types (100m resolution) for EU27 countries</t>
-  </si>
-  <si>
-    <t>Forest cover loss for Finland (e-shape, 0.00075 degrees)</t>
-  </si>
-  <si>
-    <t>Forest cover loss for Finland (e-shape, 0.0025 degrees)</t>
-  </si>
-  <si>
-    <t>Forest cover loss for Finland (e-shape, 0.0075 degrees)</t>
-  </si>
-  <si>
-    <t>Forest cover loss for Finland (e-shape, 0.025 degrees)</t>
-  </si>
-  <si>
-    <t>Forest cover loss for Finland (e-shape, 0.00025 degrees)</t>
-  </si>
-  <si>
-    <t>Global trends in biodiversity (BES-SIM GLOBIO)</t>
-  </si>
-  <si>
-    <t>Global trends in biodiversity (BES-SIM PREDICTS)</t>
-  </si>
-  <si>
-    <t>Global trends in biodiversity (BES-SIM cSAR-IIASA)</t>
-  </si>
-  <si>
-    <t>Global trends in biodiversity (BES-SIM cSAR-iDiv)</t>
-  </si>
-  <si>
-    <t>Global trends in biodiversity (BES-SIM AIM)</t>
-  </si>
-  <si>
-    <t>Tropical Andes macrogroup ecosystem extent</t>
-  </si>
-  <si>
-    <t>Tropical Andes formation ecosystem extent</t>
-  </si>
-  <si>
-    <t>Nocturnal bird migration across western Europe</t>
-  </si>
-  <si>
-    <t>Canopy Chlorophyll Content for the Bavarian Forest National Park</t>
-  </si>
-  <si>
-    <t>Historical local species richness (PREDICTS)</t>
-  </si>
-  <si>
-    <t>Net Primary Productivity for Bavarian Forest National Park</t>
-  </si>
-  <si>
-    <t>Net Primary Productivity in Europe 2015</t>
-  </si>
-  <si>
-    <t>Global trends in ecosystem services (BES-SIM LPJ-GUESS)</t>
-  </si>
-  <si>
-    <t>Global trends in ecosystem services (BES-SIM LPJ)</t>
-  </si>
-  <si>
-    <t>Global trends in ecosystem services (BES-SIM CABLE POP)</t>
-  </si>
-  <si>
-    <t>Global trends in ecosystem services (BES-SIM InVEST)</t>
-  </si>
-  <si>
-    <t>Global trends in ecosystem services (BES-SIM GLOBIO-ES)</t>
-  </si>
-  <si>
-    <t>Net Primary Productivity in Europe 2015 (monthly)</t>
-  </si>
-  <si>
-    <t>Tropical Andes species richness by macrogroup</t>
-  </si>
-  <si>
-    <t>Global trends in biodiversity (BES-SIM INSIGHTS) </t>
-  </si>
-  <si>
-    <t>Pasture production model</t>
-  </si>
-  <si>
-    <t>Post-fire legacies management and snow cover</t>
-  </si>
-  <si>
-    <t>Crop production for the Sierra Nevada National Park</t>
-  </si>
-  <si>
-    <t>Americas species richness by macrogroup </t>
-  </si>
-  <si>
-    <t>Distribution of European habitat types of the Habitats Directive (2018)</t>
-  </si>
-  <si>
-    <t>Distribution of European species of the Habitats Directive (2018)</t>
-  </si>
-  <si>
-    <t>Distribution of European bird species of the Birds Directive (2018)</t>
-  </si>
-  <si>
-    <t>Opportunity cost estimates for spatial conservation prioritisation across Europe</t>
-  </si>
-  <si>
-    <t>Breeding distribution of farmland birds (EBBA LIVE)</t>
-  </si>
-  <si>
-    <t>Occurrence Metrics for the Birds Directive Annex I Species in EU27: A 10 km prototype using GBIF occurrence cubes</t>
-  </si>
-  <si>
-    <t>Occurrence Metrics for Invasive Alien Species of Union Concern in EU27: A 10 km prototype using GBIF occurrence cubes</t>
+    <t>surface temperature</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>species distribution of terrestrial plants</t>
+  </si>
+  <si>
+    <t>Daily mean air temperature (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily minimum air temperatrure (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily maximum air temperature (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily precipitation (2000-2024) Collelongo</t>
+  </si>
+  <si>
+    <t>Daily mean air relative humidity (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Corine Land Cover 2018 Collelongo</t>
+  </si>
+  <si>
+    <t>freshwater ecosystem productivity</t>
+  </si>
+  <si>
+    <t>ocean, biochemical: ocean colour</t>
+  </si>
+  <si>
+    <t>terrestrial ecosystem productivity</t>
+  </si>
+  <si>
+    <t>Net primary production (2000-2020) Collelongo</t>
+  </si>
+  <si>
+    <t>NPP_EEA_Collelongo.tif</t>
+  </si>
+  <si>
+    <t>CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</t>
+  </si>
+  <si>
+    <t>EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6869436a-80f4-4c6d-954b-a730b348d7ce </t>
+  </si>
+  <si>
+    <t>Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>rasterTS</t>
+  </si>
+  <si>
+    <t>shapefile</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tg_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tn_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tx_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/rr_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/hu_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/corine-land-cover/clc2018#download</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Date of maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>https://sdi.eea.europa.eu/data/28d6b823-e2fd-4bf4-a6aa-cb6a359c52da</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8402932/files/OCCCIv6_4KM_PHENOLOGY_CHLOR_A.nc?download=1</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/preprints/essd-2024-21/essd-2024-21.pdf</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2017JD028200</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/corine-land-cover</t>
+  </si>
+  <si>
+    <t>https://www.eea.europa.eu/en/datahub/datahubitem-view/47e902f8-8237-415b-91fc-6d1522b11417</t>
+  </si>
+  <si>
+    <t>Copernicus</t>
+  </si>
+  <si>
+    <t>EEA</t>
   </si>
 </sst>
 </file>
@@ -764,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -783,8 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -804,9 +848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -844,9 +888,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,9 +923,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,9 +975,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1090,21 +1168,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="48.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1151,7 +1229,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1172,30 +1250,6 @@
       </c>
       <c r="G3" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="6" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1213,16 +1267,16 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B5" activeCellId="1" sqref="B2 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +1322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1368,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1334,7 +1388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1357,7 +1411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +1434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1403,7 +1457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1426,7 +1480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1449,7 +1503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1469,7 +1523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1492,7 +1546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -1515,7 +1569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1560,24 +1614,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="9" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="116.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="143.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="152.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1585,7 +1643,7 @@
         <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>85</v>
@@ -1603,16 +1661,16 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1628,743 +1686,887 @@
       <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
-        <v>92</v>
+      <c r="F2" s="8" t="str">
+        <f>+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",E2)</f>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
       </c>
       <c r="G2" t="s">
         <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
       <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f t="shared" ref="F3:F28" si="0">+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",E3)</f>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
       <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
         <v>105</v>
       </c>
-      <c r="G4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>109</v>
       </c>
-      <c r="J4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="G9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/NPP_EEA_Collelongo.tif</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+      </c>
+      <c r="G28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{553D2B69-5BE6-874E-AC5E-A635C6328440}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{2F590B1D-8210-384E-8018-FB4572E03C72}"/>
     <hyperlink ref="I4" r:id="rId3" xr:uid="{1474173C-E4BA-6A49-BB1E-5A62B026D73E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D461525-DA5A-4C1D-AA1E-82B3B07C304E}">
-  <dimension ref="A1:D48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="108.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="str">
-        <f>+VLOOKUP(C2,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f>+VLOOKUP(C3,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="9" t="e">
-        <f>+VLOOKUP(C4,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="9" t="e">
-        <f>+VLOOKUP(C5,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="9" t="e">
-        <f>+VLOOKUP(C6,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="9" t="str">
-        <f>+VLOOKUP(C7,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f>+VLOOKUP(C8,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="9" t="str">
-        <f>+VLOOKUP(C9,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="9" t="str">
-        <f>+VLOOKUP(C10,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Terrestrial ecosystem phenology</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f>+VLOOKUP(C11,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f>+VLOOKUP(C12,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <f>+VLOOKUP(C13,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>23</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="9" t="str">
-        <f>+VLOOKUP(C14,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>24</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="9" t="str">
-        <f>+VLOOKUP(C15,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>25</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="9" t="str">
-        <f>+VLOOKUP(C16,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>26</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="9" t="str">
-        <f>+VLOOKUP(C17,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>27</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="9" t="e">
-        <f>+VLOOKUP(C18,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>28</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="9" t="e">
-        <f>+VLOOKUP(C19,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>29</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="9" t="e">
-        <f>+VLOOKUP(C20,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>30</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="9" t="e">
-        <f>+VLOOKUP(C21,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>31</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="9" t="e">
-        <f>+VLOOKUP(C22,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>34</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="9" t="str">
-        <f>+VLOOKUP(C23,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>38</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="9" t="str">
-        <f>+VLOOKUP(C24,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>42</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="9" t="str">
-        <f>+VLOOKUP(C25,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>53</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="9" t="e">
-        <f>+VLOOKUP(C26,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>55</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="9" t="e">
-        <f>+VLOOKUP(C27,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>58</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="9" t="str">
-        <f>+VLOOKUP(C28,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Terrestrial ecosystem productivity</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>59</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="9" t="e">
-        <f>+VLOOKUP(C29,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>60</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="9" t="e">
-        <f>+VLOOKUP(C30,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>61</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="9" t="e">
-        <f>+VLOOKUP(C31,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>62</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="9" t="e">
-        <f>+VLOOKUP(C32,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>63</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="9" t="e">
-        <f>+VLOOKUP(C33,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>64</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="9" t="e">
-        <f>+VLOOKUP(C34,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>66</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="9" t="e">
-        <f>+VLOOKUP(C35,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>67</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="9" t="str">
-        <f>+VLOOKUP(C36,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>68</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="9" t="e">
-        <f>+VLOOKUP(C37,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>69</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="9" t="str">
-        <f>+VLOOKUP(C38,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Terrestrial ecosystem productivity</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>70</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="9" t="e">
-        <f>+VLOOKUP(C39,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>72</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="9" t="str">
-        <f>+VLOOKUP(C40,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Terrestrial ecosystem productivity</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>73</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" s="9" t="e">
-        <f>+VLOOKUP(C41,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>75</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="9" t="e">
-        <f>+VLOOKUP(C42,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>76</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="9" t="e">
-        <f>+VLOOKUP(C43,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>77</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="9" t="str">
-        <f>+VLOOKUP(C44,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>78</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="9" t="e">
-        <f>+VLOOKUP(C45,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>79</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="9" t="str">
-        <f>+VLOOKUP(C46,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>82</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="9" t="str">
-        <f>+VLOOKUP(C47,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>Species distributions of selected terrestrial plants</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>83</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="9" t="e">
-        <f>+VLOOKUP(C48,EV!$A$1:$B$14,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itineris\ITINERIS-EVsVRE\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD2688-080E-4004-B365-BD4576497937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32FCDB5-FB09-344B-9306-2BD9EE30B79A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,11 @@
     <sheet name="datasets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="184">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -716,6 +705,15 @@
   <si>
     <t>EEA</t>
   </si>
+  <si>
+    <t xml:space="preserve">Collelongo-Selva Piana </t>
+  </si>
+  <si>
+    <t>https://deims.org/9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
+  </si>
+  <si>
+    <t>collelongo</t>
+  </si>
 </sst>
 </file>
 
@@ -809,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -829,10 +827,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -848,7 +847,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1168,21 +1167,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="33.33203125" customWidth="1"/>
     <col min="6" max="6" width="48.6640625" customWidth="1"/>
     <col min="7" max="7" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1250,6 +1249,30 @@
       </c>
       <c r="G3" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1270,13 +1293,13 @@
       <selection activeCell="B5" activeCellId="1" sqref="B2 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1388,7 +1411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1411,7 +1434,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1434,7 +1457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1457,7 +1480,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1480,7 +1503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1503,7 +1526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1523,7 +1546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1546,7 +1569,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -1569,7 +1592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1616,26 +1639,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="95.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="86.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="116.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="143.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="116.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="143.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="152.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="152.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1670,7 +1693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1700,7 +1723,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1767,7 +1790,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -1800,7 +1823,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1833,7 +1856,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -1866,7 +1889,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -1899,7 +1922,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1932,7 +1955,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -1965,7 +1988,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -1998,7 +2021,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -2031,7 +2054,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -2064,7 +2087,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -2097,7 +2120,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -2130,7 +2153,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2163,7 +2186,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -2196,7 +2219,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -2229,7 +2252,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -2262,7 +2285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -2295,7 +2318,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -2328,7 +2351,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -2361,7 +2384,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -2394,7 +2417,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -2427,7 +2450,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -2460,7 +2483,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -2493,7 +2516,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -2526,7 +2549,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>129</v>
       </c>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -5,24 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/_Paolo_noGIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32FCDB5-FB09-344B-9306-2BD9EE30B79A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E888C1-18A6-E840-B67D-A4D0B729EDBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33480" windowHeight="16160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
     <sheet name="EV" sheetId="2" r:id="rId2"/>
     <sheet name="datasets" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">datasets!$A$1:$W$45</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="275">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -433,9 +436,6 @@
     <t>timeseries</t>
   </si>
   <si>
-    <t>chlorophyll concentration in surface water</t>
-  </si>
-  <si>
     <t>Clorofilla da sensore su boa E1 LTER ITALIA</t>
   </si>
   <si>
@@ -481,245 +481,521 @@
     <t>http://getit.lteritalia.it/observations/sos</t>
   </si>
   <si>
+    <t>http://www.get-it.it/sensors/getit.lteritalia.it/procedure/noOwnerDeclared/noModelDeclared/noSerialNumberDeclared/1286194C-A5DF-11DF-8ED7-1602DFD72097</t>
+  </si>
+  <si>
+    <t>9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
+  </si>
+  <si>
+    <t>Daily mean air temperature (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily minimum air temperatrure (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily maximum air temperature (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily precipitation (2000-2024) Collelongo</t>
+  </si>
+  <si>
+    <t>Daily mean air relative humidity (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Corine Land Cover 2018 Collelongo</t>
+  </si>
+  <si>
+    <t>CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</t>
+  </si>
+  <si>
+    <t>EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6869436a-80f4-4c6d-954b-a730b348d7ce </t>
+  </si>
+  <si>
+    <t>Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>rasterTS</t>
+  </si>
+  <si>
+    <t>shapefile</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tg_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tn_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tx_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/rr_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/hu_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/corine-land-cover/clc2018#download</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Date of maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>https://sdi.eea.europa.eu/data/28d6b823-e2fd-4bf4-a6aa-cb6a359c52da</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8402932/files/OCCCIv6_4KM_PHENOLOGY_CHLOR_A.nc?download=1</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/preprints/essd-2024-21/essd-2024-21.pdf</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2017JD028200</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/corine-land-cover</t>
+  </si>
+  <si>
+    <t>https://www.eea.europa.eu/en/datahub/datahubitem-view/47e902f8-8237-415b-91fc-6d1522b11417</t>
+  </si>
+  <si>
+    <t>Copernicus</t>
+  </si>
+  <si>
+    <t>EEA</t>
+  </si>
+  <si>
+    <t>Monthly phytoplankton carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly diatoms carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly nanophytoplankton carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly picophytoplankton carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly dinoflagellates carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>Monthly mass concentration of chlorophyll-a (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly zooplankton carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly diatoms in chlorophyll concentration (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly nanophytoplankton in chlorophyll concentration (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly picophytoplankton in chlorophyll concentration (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly dinoflagellates in chlorophyll concentration (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>Monthly dissolved molecular oxygen in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly net primary production of biomass expressed as carbon per unit (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Collelongo Selva Piana</t>
+  </si>
+  <si>
+    <t>collelongo</t>
+  </si>
+  <si>
+    <t>https://deims.org/9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
+  </si>
+  <si>
+    <t>MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>Monthly concentration of ammonium in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly concentration of nitrates in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly concentration of inorganic phosphate in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly concentration of silicates in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>Var_identifier</t>
+  </si>
+  <si>
+    <t>MeasurementUnit</t>
+  </si>
+  <si>
+    <t>landingPage</t>
+  </si>
+  <si>
+    <t>accessURL</t>
+  </si>
+  <si>
+    <t>Species distribution of terrestrial plants</t>
+  </si>
+  <si>
+    <t>precipitation_amount</t>
+  </si>
+  <si>
+    <t>relative_humidity</t>
+  </si>
+  <si>
+    <t>species_distribution</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>sea_nutrients</t>
+  </si>
+  <si>
+    <t>sea_production</t>
+  </si>
+  <si>
+    <t>sea_phenology</t>
+  </si>
+  <si>
+    <t>sea_chlorophyll</t>
+  </si>
+  <si>
+    <t>sea_oxygen</t>
+  </si>
+  <si>
+    <t>lake_production</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>deg_C</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>perc</t>
+  </si>
+  <si>
+    <t>https://data.marine.copernicus.eu/product/MEDSEA_ANALYSISFORECAST_BGC_006_014/files?subdataset=cmems_mod_med_bgc-nut_anfc_4.2km_P1M-m_202211</t>
+  </si>
+  <si>
+    <t>https://catalogue.marine.copernicus.eu/documents/PUM/CMEMS-MED-PUM-006-014.pdf</t>
+  </si>
+  <si>
+    <t>https://data.marine.copernicus.eu/product/MEDSEA_ANALYSISFORECAST_BGC_006_014/files?subdataset=cmems_mod_med_bgc-pft_anfc_4.2km_P1M-m_202311</t>
+  </si>
+  <si>
+    <t>https://surfobs.climate.copernicus.eu/dataaccess/access_eobs.php</t>
+  </si>
+  <si>
+    <t>surface_temperature</t>
+  </si>
+  <si>
+    <t>SpatialCoverage</t>
+  </si>
+  <si>
+    <t>SpatialResolution</t>
+  </si>
+  <si>
+    <t>SpatialUnit</t>
+  </si>
+  <si>
+    <t>TemporalResolution</t>
+  </si>
+  <si>
+    <t>TemporalExtent</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA</t>
+  </si>
+  <si>
+    <t>1950-2024</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>CC BY</t>
+  </si>
+  <si>
+    <t>Net primary production (2000-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>2000-2022</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>days since 1998-06-26 00:00:00</t>
+  </si>
+  <si>
+    <t>days since 1998-08-05 00:00:00</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>mg m-3 bloom-1</t>
+  </si>
+  <si>
+    <t>mg m-3</t>
+  </si>
+  <si>
+    <t>days since 1998-07-20 00:00:00</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8402932</t>
+  </si>
+  <si>
+    <t>2022-2024</t>
+  </si>
+  <si>
+    <t>1998-2023</t>
+  </si>
+  <si>
+    <t>gC m-1</t>
+  </si>
+  <si>
+    <t>mmol m-3</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>mg m-3 day-1</t>
+  </si>
+  <si>
+    <t>https://data.marine.copernicus.eu/product/MEDSEA_ANALYSISFORECAST_BGC_006_014/files?subdataset=cmems_mod_med_bgc-nut_anfc_4.2km_P1D-m_202211</t>
+  </si>
+  <si>
+    <t>https://data.marine.copernicus.eu/product/MEDSEA_ANALYSISFORECAST_BGC_006_014/files?subdataset=cmems_mod_med_bgc-co2_anfc_4.2km_P1D-m_202211</t>
+  </si>
+  <si>
+    <t>https://www.copernicus.eu/sites/default/files/styles/image_img_fluid/public/images/media/low/295955-Copernicus_logo_node_full_image_2.jpg?itok=rxBru8V4</t>
+  </si>
+  <si>
+    <t>https://www.eea.europa.eu/en/newsroom/branding-materials/eea_logo_compact_en.png/@@images/image/preview</t>
+  </si>
+  <si>
+    <t>EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
     <t>procedure</t>
-  </si>
-  <si>
-    <t>http://www.get-it.it/sensors/getit.lteritalia.it/procedure/noOwnerDeclared/noModelDeclared/noSerialNumberDeclared/1286194C-A5DF-11DF-8ED7-1602DFD72097</t>
-  </si>
-  <si>
-    <t>9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
-  </si>
-  <si>
-    <t>surface temperature</t>
-  </si>
-  <si>
-    <t>precipitation</t>
-  </si>
-  <si>
-    <t>species distribution of terrestrial plants</t>
-  </si>
-  <si>
-    <t>Daily mean air temperature (2000-2024) Colellongo</t>
-  </si>
-  <si>
-    <t>Daily minimum air temperatrure (2000-2024) Colellongo</t>
-  </si>
-  <si>
-    <t>Daily maximum air temperature (2000-2024) Colellongo</t>
-  </si>
-  <si>
-    <t>Daily precipitation (2000-2024) Collelongo</t>
-  </si>
-  <si>
-    <t>Daily mean air relative humidity (2000-2024) Colellongo</t>
-  </si>
-  <si>
-    <t>Corine Land Cover 2018 Collelongo</t>
-  </si>
-  <si>
-    <t>freshwater ecosystem productivity</t>
-  </si>
-  <si>
-    <t>ocean, biochemical: ocean colour</t>
-  </si>
-  <si>
-    <t>terrestrial ecosystem productivity</t>
-  </si>
-  <si>
-    <t>Net primary production (2000-2020) Collelongo</t>
-  </si>
-  <si>
-    <t>NPP_EEA_Collelongo.tif</t>
-  </si>
-  <si>
-    <t>CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</t>
-  </si>
-  <si>
-    <t>EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6869436a-80f4-4c6d-954b-a730b348d7ce </t>
-  </si>
-  <si>
-    <t>Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>rasterTS</t>
-  </si>
-  <si>
-    <t>shapefile</t>
-  </si>
-  <si>
-    <t>Zenodo</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tg_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tn_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tx_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/rr_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/hu_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://land.copernicus.eu/en/products/corine-land-cover/clc2018#download</t>
-  </si>
-  <si>
-    <t>Bloom initiation date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom termination date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom duration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Integrated bloom chlorophyll-a using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Mean chlorophyll-a concentration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom initiation date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom termination date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom duration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Integrated bloom chlorophyll-a using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Mean chlorophyll-a concentration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom initiation date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom termination date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom duration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Integrated bloom chlorophyll-a using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Mean chlorophyll-a concentration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Date of maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>https://sdi.eea.europa.eu/data/28d6b823-e2fd-4bf4-a6aa-cb6a359c52da</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/8402932/files/OCCCIv6_4KM_PHENOLOGY_CHLOR_A.nc?download=1</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/preprints/essd-2024-21/essd-2024-21.pdf</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2017JD028200</t>
-  </si>
-  <si>
-    <t>https://land.copernicus.eu/en/products/corine-land-cover</t>
-  </si>
-  <si>
-    <t>https://www.eea.europa.eu/en/datahub/datahubitem-view/47e902f8-8237-415b-91fc-6d1522b11417</t>
-  </si>
-  <si>
-    <t>Copernicus</t>
-  </si>
-  <si>
-    <t>EEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collelongo-Selva Piana </t>
-  </si>
-  <si>
-    <t>https://deims.org/9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
-  </si>
-  <si>
-    <t>collelongo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,13 +1052,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -807,7 +1095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -828,6 +1116,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1169,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1512,7 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -1244,7 +1535,7 @@
       <c r="E3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
@@ -1256,10 +1547,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>35</v>
@@ -1268,18 +1559,14 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>182</v>
+      <c r="F4" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{A6CEBC6C-6FB5-F04B-BB51-DD7B5F9B2127}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{6FE84E00-F461-0140-90CD-A5B35229E2F2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1290,7 +1577,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" activeCellId="1" sqref="B2 B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1637,959 +1924,3009 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="116.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="143.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="152.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
+    <col min="6" max="6" width="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="125.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="156.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="162.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="170.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>234</v>
+      </c>
+      <c r="R1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" t="s">
+        <v>236</v>
+      </c>
+      <c r="T1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U1" t="s">
+        <v>238</v>
+      </c>
+      <c r="V1" t="s">
+        <v>239</v>
+      </c>
+      <c r="W1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",H2)</f>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f t="shared" ref="I3:I45" si="0">+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",H3)</f>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="L3" s="1"/>
+      <c r="O3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="8" t="str">
-        <f>+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",E2)</f>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F28" si="0">+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",E3)</f>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
-      </c>
-      <c r="G3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="8" t="str">
+      <c r="G4" s="11"/>
+      <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" t="s">
         <v>104</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" t="s">
         <v>107</v>
       </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="8" t="str">
+      <c r="G5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" t="s">
-        <v>176</v>
-      </c>
       <c r="J5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" t="s">
+        <v>232</v>
+      </c>
+      <c r="O5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R5">
+        <v>0.1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>242</v>
+      </c>
+      <c r="T5" t="s">
+        <v>243</v>
+      </c>
+      <c r="U5" t="s">
+        <v>246</v>
+      </c>
+      <c r="V5" t="s">
+        <v>244</v>
+      </c>
+      <c r="W5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="8" t="str">
+      <c r="G6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" t="s">
-        <v>176</v>
-      </c>
       <c r="J6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="K6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" t="s">
+        <v>232</v>
+      </c>
+      <c r="O6" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>241</v>
+      </c>
+      <c r="R6">
+        <v>0.1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>242</v>
+      </c>
+      <c r="T6" t="s">
+        <v>243</v>
+      </c>
+      <c r="U6" t="s">
+        <v>246</v>
+      </c>
+      <c r="V6" t="s">
+        <v>244</v>
+      </c>
+      <c r="W6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" t="s">
         <v>109</v>
       </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="8" t="str">
+      <c r="G7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" t="s">
-        <v>176</v>
-      </c>
       <c r="J7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="K7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" t="s">
+        <v>232</v>
+      </c>
+      <c r="O7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>241</v>
+      </c>
+      <c r="R7">
+        <v>0.1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>242</v>
+      </c>
+      <c r="T7" t="s">
+        <v>243</v>
+      </c>
+      <c r="U7" t="s">
+        <v>246</v>
+      </c>
+      <c r="V7" t="s">
+        <v>244</v>
+      </c>
+      <c r="W7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" t="s">
         <v>110</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" t="s">
         <v>115</v>
       </c>
-      <c r="E8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="8" t="str">
+      <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" t="s">
-        <v>176</v>
-      </c>
       <c r="J8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="K8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" t="s">
+        <v>232</v>
+      </c>
+      <c r="O8" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>241</v>
+      </c>
+      <c r="R8">
+        <v>0.1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>242</v>
+      </c>
+      <c r="T8" t="s">
+        <v>243</v>
+      </c>
+      <c r="U8" t="s">
+        <v>246</v>
+      </c>
+      <c r="V8" t="s">
+        <v>244</v>
+      </c>
+      <c r="W8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="8" t="str">
+        <v>216</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" t="s">
-        <v>176</v>
-      </c>
       <c r="J9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="K9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>241</v>
+      </c>
+      <c r="R9">
+        <v>0.1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>242</v>
+      </c>
+      <c r="T9" t="s">
+        <v>243</v>
+      </c>
+      <c r="U9" t="s">
+        <v>246</v>
+      </c>
+      <c r="V9" t="s">
+        <v>244</v>
+      </c>
+      <c r="W9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="8" t="str">
+        <v>217</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</v>
       </c>
-      <c r="G10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" t="s">
-        <v>177</v>
-      </c>
       <c r="J10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>108</v>
+        <v>138</v>
+      </c>
+      <c r="K10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>241</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>247</v>
+      </c>
+      <c r="T10" t="s">
+        <v>248</v>
+      </c>
+      <c r="U10" t="s">
+        <v>249</v>
+      </c>
+      <c r="V10" t="s">
+        <v>244</v>
+      </c>
+      <c r="W10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>253</v>
+      </c>
+      <c r="R11">
+        <v>196</v>
+      </c>
+      <c r="S11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s">
+        <v>254</v>
+      </c>
+      <c r="U11" t="s">
+        <v>252</v>
+      </c>
+      <c r="V11" t="s">
+        <v>244</v>
+      </c>
+      <c r="W11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" t="s">
         <v>120</v>
       </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/NPP_EEA_Collelongo.tif</v>
-      </c>
-      <c r="G11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" t="s">
+        <v>261</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" t="s">
         <v>147</v>
       </c>
-      <c r="H12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="8" t="str">
+      <c r="G13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" t="s">
-        <v>175</v>
-      </c>
       <c r="J13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" t="s">
+        <v>261</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>158</v>
-      </c>
       <c r="E14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="8" t="str">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" t="s">
-        <v>175</v>
-      </c>
       <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s">
+        <v>261</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="G15" t="s">
+        <v>258</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I15" t="s">
-        <v>175</v>
-      </c>
       <c r="J15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="s">
+        <v>165</v>
+      </c>
+      <c r="N15" t="s">
+        <v>261</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="8" t="str">
+        <v>222</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" t="s">
-        <v>175</v>
-      </c>
       <c r="J16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="s">
+        <v>165</v>
+      </c>
+      <c r="N16" t="s">
+        <v>261</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R16">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>161</v>
-      </c>
       <c r="E17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="8" t="str">
+        <v>221</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" t="s">
-        <v>175</v>
-      </c>
       <c r="J17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N17" t="s">
+        <v>261</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R17">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>162</v>
-      </c>
       <c r="E18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" t="str">
+        <v>221</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G18" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" t="s">
-        <v>175</v>
-      </c>
       <c r="J18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="s">
+        <v>165</v>
+      </c>
+      <c r="N18" t="s">
+        <v>261</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>163</v>
-      </c>
       <c r="E19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="8" t="str">
+        <v>221</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I19" t="s">
-        <v>175</v>
-      </c>
       <c r="J19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N19" t="s">
+        <v>261</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R19">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="8" t="str">
+        <v>222</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" t="s">
-        <v>174</v>
-      </c>
-      <c r="I20" t="s">
-        <v>175</v>
-      </c>
       <c r="J20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" t="s">
+        <v>261</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R20">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" t="s">
         <v>129</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" t="s">
-        <v>175</v>
-      </c>
       <c r="J21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" t="s">
+        <v>261</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R21">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>166</v>
-      </c>
       <c r="E22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="8" t="str">
+        <v>221</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" t="s">
+        <v>255</v>
+      </c>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" t="s">
-        <v>174</v>
-      </c>
-      <c r="I22" t="s">
-        <v>175</v>
-      </c>
       <c r="J22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" t="s">
+        <v>261</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R22">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
       <c r="E23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="8" t="str">
+        <v>221</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" t="s">
-        <v>175</v>
-      </c>
       <c r="J23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" t="s">
+        <v>165</v>
+      </c>
+      <c r="N23" t="s">
+        <v>261</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R23">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
       <c r="E24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" t="str">
+        <v>221</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" t="s">
-        <v>175</v>
-      </c>
       <c r="J24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N24" t="s">
+        <v>261</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R24">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="8" t="str">
+        <v>222</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G25" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" t="s">
-        <v>175</v>
-      </c>
       <c r="J25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="M25" t="s">
+        <v>165</v>
+      </c>
+      <c r="N25" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="8" t="str">
+        <v>222</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" t="s">
-        <v>175</v>
-      </c>
       <c r="J26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" t="s">
+        <v>165</v>
+      </c>
+      <c r="N26" t="s">
+        <v>261</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" t="str">
+        <v>222</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" t="s">
-        <v>175</v>
-      </c>
       <c r="J27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R27">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="8" t="str">
+        <v>222</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="R28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" t="s">
+        <v>230</v>
+      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R29">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U29" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J30" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="s">
+        <v>230</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R30">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J31" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="s">
+        <v>230</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>169</v>
+      </c>
+      <c r="P31" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" t="s">
         <v>174</v>
       </c>
-      <c r="I28" t="s">
+      <c r="G32" t="s">
+        <v>265</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" t="s">
+        <v>230</v>
+      </c>
+      <c r="N32" t="s">
+        <v>231</v>
+      </c>
+      <c r="O32" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R32">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" t="s">
         <v>175</v>
       </c>
-      <c r="J28" t="s">
-        <v>149</v>
+      <c r="G33" t="s">
+        <v>265</v>
+      </c>
+      <c r="H33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J33" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" t="s">
+        <v>231</v>
+      </c>
+      <c r="M33" t="s">
+        <v>230</v>
+      </c>
+      <c r="N33" t="s">
+        <v>231</v>
+      </c>
+      <c r="O33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P33" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R33">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" t="s">
+        <v>259</v>
+      </c>
+      <c r="H34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J34" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" t="s">
+        <v>230</v>
+      </c>
+      <c r="N34" t="s">
+        <v>231</v>
+      </c>
+      <c r="O34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P34" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R34">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H35" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J35" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" t="s">
+        <v>231</v>
+      </c>
+      <c r="M35" t="s">
+        <v>230</v>
+      </c>
+      <c r="N35" t="s">
+        <v>231</v>
+      </c>
+      <c r="O35" t="s">
+        <v>169</v>
+      </c>
+      <c r="P35" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R35">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36" t="s">
+        <v>196</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J36" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M36" t="s">
+        <v>230</v>
+      </c>
+      <c r="N36" t="s">
+        <v>231</v>
+      </c>
+      <c r="O36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R36">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" t="s">
+        <v>197</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J37" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" t="s">
+        <v>231</v>
+      </c>
+      <c r="M37" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" t="s">
+        <v>231</v>
+      </c>
+      <c r="O37" t="s">
+        <v>169</v>
+      </c>
+      <c r="P37" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" t="s">
+        <v>230</v>
+      </c>
+      <c r="N38" t="s">
+        <v>231</v>
+      </c>
+      <c r="O38" t="s">
+        <v>169</v>
+      </c>
+      <c r="P38" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" t="s">
+        <v>259</v>
+      </c>
+      <c r="H39" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" t="s">
+        <v>231</v>
+      </c>
+      <c r="M39" t="s">
+        <v>230</v>
+      </c>
+      <c r="N39" t="s">
+        <v>231</v>
+      </c>
+      <c r="O39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R39">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U39" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" t="s">
+        <v>265</v>
+      </c>
+      <c r="H40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" t="s">
+        <v>270</v>
+      </c>
+      <c r="M40" t="s">
+        <v>230</v>
+      </c>
+      <c r="N40" t="s">
+        <v>231</v>
+      </c>
+      <c r="O40" t="s">
+        <v>169</v>
+      </c>
+      <c r="P40" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R40">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" t="s">
+        <v>268</v>
+      </c>
+      <c r="H41" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J41" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" t="s">
+        <v>270</v>
+      </c>
+      <c r="M41" t="s">
+        <v>230</v>
+      </c>
+      <c r="N41" t="s">
+        <v>231</v>
+      </c>
+      <c r="O41" t="s">
+        <v>169</v>
+      </c>
+      <c r="P41" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R41">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U41" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J42" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" t="s">
+        <v>269</v>
+      </c>
+      <c r="M42" t="s">
+        <v>230</v>
+      </c>
+      <c r="N42" t="s">
+        <v>229</v>
+      </c>
+      <c r="O42" t="s">
+        <v>169</v>
+      </c>
+      <c r="P42" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R42">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" t="s">
+        <v>265</v>
+      </c>
+      <c r="H43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J43" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" t="s">
+        <v>269</v>
+      </c>
+      <c r="M43" t="s">
+        <v>230</v>
+      </c>
+      <c r="N43" t="s">
+        <v>229</v>
+      </c>
+      <c r="O43" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R43">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J44" t="s">
+        <v>137</v>
+      </c>
+      <c r="K44" t="s">
+        <v>269</v>
+      </c>
+      <c r="M44" t="s">
+        <v>230</v>
+      </c>
+      <c r="N44" t="s">
+        <v>229</v>
+      </c>
+      <c r="O44" t="s">
+        <v>169</v>
+      </c>
+      <c r="P44" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R44">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J45" t="s">
+        <v>137</v>
+      </c>
+      <c r="K45" t="s">
+        <v>269</v>
+      </c>
+      <c r="M45" t="s">
+        <v>230</v>
+      </c>
+      <c r="N45" t="s">
+        <v>229</v>
+      </c>
+      <c r="O45" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="R45">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="W45" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{553D2B69-5BE6-874E-AC5E-A635C6328440}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{2F590B1D-8210-384E-8018-FB4572E03C72}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{1474173C-E4BA-6A49-BB1E-5A62B026D73E}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{553D2B69-5BE6-874E-AC5E-A635C6328440}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{2F590B1D-8210-384E-8018-FB4572E03C72}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{FE14985B-235F-4F7E-92C5-8557ABF5B36A}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{613A3A06-9B48-3547-82B1-7D5CBFE99FF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/_Paolo_noGIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E888C1-18A6-E840-B67D-A4D0B729EDBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{040CEFF4-E44D-0746-827F-4B6C5AECCF2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33480" windowHeight="16160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">datasets!$A$1:$W$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="298">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -811,18 +822,6 @@
     <t>Species distribution of terrestrial plants</t>
   </si>
   <si>
-    <t>precipitation_amount</t>
-  </si>
-  <si>
-    <t>relative_humidity</t>
-  </si>
-  <si>
-    <t>species_distribution</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
     <t>sea_nutrients</t>
   </si>
   <si>
@@ -989,13 +988,94 @@
   </si>
   <si>
     <t>procedure</t>
+  </si>
+  <si>
+    <t>land_phenology</t>
+  </si>
+  <si>
+    <t>CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>End of the flowering season (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Amplitude of the flowering season (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Length of the flowering season (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Day of the flowering peak (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Slope of the greening senescence of the flowering period (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Slope of the greening up of the flowering period (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Start of the flowering season (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-end-of-season-date</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-season-maximum-date</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-season-amplitude</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-start-of-season-date</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/map-viewer</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-season-length</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-slope-of-green-up-period</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-slope-of-green-down-period</t>
+  </si>
+  <si>
+    <t>land_production</t>
+  </si>
+  <si>
+    <t>land_speciesdristrib</t>
+  </si>
+  <si>
+    <t>surface_precipitation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1464,7 +1544,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="33.33203125" customWidth="1"/>
@@ -1472,7 +1552,7 @@
     <col min="7" max="7" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1575,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1519,7 +1599,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1542,7 +1622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1577,16 +1657,16 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1609,7 +1689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1632,7 +1712,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1655,7 +1735,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1678,7 +1758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1698,7 +1778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1721,7 +1801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1744,7 +1824,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1767,7 +1847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="18">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1790,7 +1870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1813,7 +1893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1833,7 +1913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1856,7 +1936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -1879,7 +1959,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="18">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1924,13 +2004,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
@@ -1939,7 +2019,7 @@
     <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="109" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="8" max="8" width="61.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="100.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="125.6640625" customWidth="1"/>
@@ -1957,9 +2037,9 @@
     <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
@@ -1992,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M1" t="s">
         <v>212</v>
@@ -2007,28 +2087,28 @@
         <v>98</v>
       </c>
       <c r="Q1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U1" t="s">
         <v>234</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>236</v>
       </c>
-      <c r="T1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U1" t="s">
-        <v>238</v>
-      </c>
-      <c r="V1" t="s">
-        <v>239</v>
-      </c>
-      <c r="W1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2042,7 +2122,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
         <v>90</v>
@@ -2065,7 +2145,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2079,7 +2159,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
@@ -2089,7 +2169,7 @@
         <v>91</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I45" si="0">+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",H3)</f>
+        <f t="shared" ref="I3:I52" si="0">+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",H3)</f>
         <v>~/VRE Folders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
       </c>
       <c r="J3" t="s">
@@ -2106,7 +2186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2120,7 +2200,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
         <v>102</v>
@@ -2146,7 +2226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2160,13 +2240,13 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
         <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
         <v>118</v>
@@ -2185,37 +2265,37 @@
         <v>166</v>
       </c>
       <c r="N5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O5" t="s">
         <v>169</v>
       </c>
       <c r="P5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R5">
         <v>0.1</v>
       </c>
       <c r="S5" t="s">
+        <v>238</v>
+      </c>
+      <c r="T5" t="s">
+        <v>239</v>
+      </c>
+      <c r="U5" t="s">
         <v>242</v>
       </c>
-      <c r="T5" t="s">
-        <v>243</v>
-      </c>
-      <c r="U5" t="s">
-        <v>246</v>
-      </c>
       <c r="V5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2229,13 +2309,13 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
         <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
         <v>117</v>
@@ -2254,37 +2334,37 @@
         <v>166</v>
       </c>
       <c r="N6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O6" t="s">
         <v>169</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R6">
         <v>0.1</v>
       </c>
       <c r="S6" t="s">
+        <v>238</v>
+      </c>
+      <c r="T6" t="s">
+        <v>239</v>
+      </c>
+      <c r="U6" t="s">
         <v>242</v>
       </c>
-      <c r="T6" t="s">
-        <v>243</v>
-      </c>
-      <c r="U6" t="s">
-        <v>246</v>
-      </c>
       <c r="V6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2298,13 +2378,13 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
         <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
         <v>116</v>
@@ -2323,37 +2403,37 @@
         <v>166</v>
       </c>
       <c r="N7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O7" t="s">
         <v>169</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R7">
         <v>0.1</v>
       </c>
       <c r="S7" t="s">
+        <v>238</v>
+      </c>
+      <c r="T7" t="s">
+        <v>239</v>
+      </c>
+      <c r="U7" t="s">
         <v>242</v>
       </c>
-      <c r="T7" t="s">
-        <v>243</v>
-      </c>
-      <c r="U7" t="s">
-        <v>246</v>
-      </c>
       <c r="V7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2367,13 +2447,13 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
         <v>115</v>
@@ -2392,37 +2472,37 @@
         <v>166</v>
       </c>
       <c r="N8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O8" t="s">
         <v>169</v>
       </c>
       <c r="P8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R8">
         <v>0.1</v>
       </c>
       <c r="S8" t="s">
+        <v>238</v>
+      </c>
+      <c r="T8" t="s">
+        <v>239</v>
+      </c>
+      <c r="U8" t="s">
         <v>242</v>
       </c>
-      <c r="T8" t="s">
-        <v>243</v>
-      </c>
-      <c r="U8" t="s">
-        <v>246</v>
-      </c>
       <c r="V8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2436,13 +2516,13 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="F9" t="s">
         <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H9" t="s">
         <v>114</v>
@@ -2461,37 +2541,37 @@
         <v>166</v>
       </c>
       <c r="N9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O9" t="s">
         <v>169</v>
       </c>
       <c r="P9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R9">
         <v>0.1</v>
       </c>
       <c r="S9" t="s">
+        <v>238</v>
+      </c>
+      <c r="T9" t="s">
+        <v>239</v>
+      </c>
+      <c r="U9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
-        <v>243</v>
-      </c>
-      <c r="U9" t="s">
-        <v>246</v>
-      </c>
       <c r="V9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2505,13 +2585,13 @@
         <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="F10" t="s">
         <v>112</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H10" t="s">
         <v>113</v>
@@ -2533,31 +2613,31 @@
         <v>169</v>
       </c>
       <c r="P10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R10">
         <v>25</v>
       </c>
       <c r="S10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="T10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="U10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="V10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2571,16 +2651,16 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2599,10 +2679,10 @@
         <v>170</v>
       </c>
       <c r="P11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R11">
         <v>196</v>
@@ -2611,19 +2691,19 @@
         <v>76</v>
       </c>
       <c r="T11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="V11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2637,13 +2717,13 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
         <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H12" t="s">
         <v>120</v>
@@ -2662,34 +2742,34 @@
         <v>165</v>
       </c>
       <c r="N12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R12">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2703,13 +2783,13 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" t="s">
         <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H13" t="s">
         <v>121</v>
@@ -2728,34 +2808,34 @@
         <v>165</v>
       </c>
       <c r="N13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R13">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2769,13 +2849,13 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
         <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H14" t="s">
         <v>122</v>
@@ -2794,34 +2874,34 @@
         <v>165</v>
       </c>
       <c r="N14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R14">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2835,13 +2915,13 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H15" t="s">
         <v>123</v>
@@ -2860,34 +2940,34 @@
         <v>165</v>
       </c>
       <c r="N15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R15">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2901,13 +2981,13 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H16" t="s">
         <v>124</v>
@@ -2926,34 +3006,34 @@
         <v>165</v>
       </c>
       <c r="N16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R16">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2967,13 +3047,13 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
         <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H17" t="s">
         <v>125</v>
@@ -2992,34 +3072,34 @@
         <v>165</v>
       </c>
       <c r="N17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R17">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3033,13 +3113,13 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F18" t="s">
         <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H18" t="s">
         <v>126</v>
@@ -3058,34 +3138,34 @@
         <v>165</v>
       </c>
       <c r="N18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R18">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3099,13 +3179,13 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H19" t="s">
         <v>127</v>
@@ -3124,34 +3204,34 @@
         <v>165</v>
       </c>
       <c r="N19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R19">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3165,13 +3245,13 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F20" t="s">
         <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H20" t="s">
         <v>128</v>
@@ -3190,34 +3270,34 @@
         <v>165</v>
       </c>
       <c r="N20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R20">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3231,13 +3311,13 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F21" t="s">
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>129</v>
@@ -3256,34 +3336,34 @@
         <v>165</v>
       </c>
       <c r="N21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R21">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3297,13 +3377,13 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
         <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H22" t="s">
         <v>130</v>
@@ -3322,34 +3402,34 @@
         <v>165</v>
       </c>
       <c r="N22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R22">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3363,13 +3443,13 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
         <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H23" t="s">
         <v>131</v>
@@ -3388,34 +3468,34 @@
         <v>165</v>
       </c>
       <c r="N23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R23">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3429,13 +3509,13 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F24" t="s">
         <v>158</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H24" t="s">
         <v>132</v>
@@ -3454,34 +3534,34 @@
         <v>165</v>
       </c>
       <c r="N24" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R24">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3495,13 +3575,13 @@
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F25" t="s">
         <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H25" t="s">
         <v>133</v>
@@ -3520,34 +3600,34 @@
         <v>165</v>
       </c>
       <c r="N25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R25">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3561,13 +3641,13 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
         <v>160</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H26" t="s">
         <v>134</v>
@@ -3586,34 +3666,34 @@
         <v>165</v>
       </c>
       <c r="N26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R26">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3627,13 +3707,13 @@
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F27" t="s">
         <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H27" t="s">
         <v>135</v>
@@ -3652,34 +3732,34 @@
         <v>165</v>
       </c>
       <c r="N27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O27" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R27">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3693,13 +3773,13 @@
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
         <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H28" t="s">
         <v>136</v>
@@ -3718,34 +3798,34 @@
         <v>165</v>
       </c>
       <c r="N28" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O28" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R28">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3759,13 +3839,13 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F29" t="s">
         <v>171</v>
       </c>
       <c r="G29" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H29" t="s">
         <v>192</v>
@@ -3778,43 +3858,43 @@
         <v>137</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N29" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s">
         <v>169</v>
       </c>
       <c r="P29" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R29">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3828,13 +3908,13 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F30" t="s">
         <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H30" t="s">
         <v>193</v>
@@ -3847,43 +3927,43 @@
         <v>137</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s">
         <v>169</v>
       </c>
       <c r="P30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R30">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3897,13 +3977,13 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F31" t="s">
         <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H31" t="s">
         <v>189</v>
@@ -3916,43 +3996,43 @@
         <v>137</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
         <v>169</v>
       </c>
       <c r="P31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R31">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3966,13 +4046,13 @@
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
       </c>
       <c r="G32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H32" t="s">
         <v>190</v>
@@ -3985,43 +4065,43 @@
         <v>137</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O32" t="s">
         <v>169</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R32">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4035,13 +4115,13 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H33" t="s">
         <v>191</v>
@@ -4054,43 +4134,43 @@
         <v>137</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N33" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O33" t="s">
         <v>169</v>
       </c>
       <c r="P33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R33">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4104,13 +4184,13 @@
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H34" t="s">
         <v>194</v>
@@ -4123,43 +4203,43 @@
         <v>137</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N34" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s">
         <v>169</v>
       </c>
       <c r="P34" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R34">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4173,13 +4253,13 @@
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F35" t="s">
         <v>178</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H35" t="s">
         <v>195</v>
@@ -4192,43 +4272,43 @@
         <v>137</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
         <v>169</v>
       </c>
       <c r="P35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R35">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4242,13 +4322,13 @@
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
         <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H36" t="s">
         <v>196</v>
@@ -4261,43 +4341,43 @@
         <v>137</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O36" t="s">
         <v>169</v>
       </c>
       <c r="P36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R36">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4311,13 +4391,13 @@
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H37" t="s">
         <v>197</v>
@@ -4330,43 +4410,43 @@
         <v>137</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N37" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O37" t="s">
         <v>169</v>
       </c>
       <c r="P37" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R37">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4380,13 +4460,13 @@
         <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F38" t="s">
         <v>181</v>
       </c>
       <c r="G38" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H38" t="s">
         <v>198</v>
@@ -4399,43 +4479,43 @@
         <v>137</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M38" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N38" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O38" t="s">
         <v>169</v>
       </c>
       <c r="P38" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R38">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V38" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4449,13 +4529,13 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F39" t="s">
         <v>182</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H39" t="s">
         <v>199</v>
@@ -4468,43 +4548,43 @@
         <v>137</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M39" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N39" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O39" t="s">
         <v>169</v>
       </c>
       <c r="P39" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R39">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4518,13 +4598,13 @@
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H40" t="s">
         <v>200</v>
@@ -4537,43 +4617,43 @@
         <v>137</v>
       </c>
       <c r="K40" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O40" t="s">
         <v>169</v>
       </c>
       <c r="P40" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R40">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V40" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4587,13 +4667,13 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
         <v>185</v>
       </c>
       <c r="G41" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H41" t="s">
         <v>201</v>
@@ -4606,43 +4686,43 @@
         <v>137</v>
       </c>
       <c r="K41" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M41" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O41" t="s">
         <v>169</v>
       </c>
       <c r="P41" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R41">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4656,13 +4736,13 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
         <v>202</v>
       </c>
       <c r="G42" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s">
         <v>206</v>
@@ -4675,43 +4755,43 @@
         <v>137</v>
       </c>
       <c r="K42" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N42" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O42" t="s">
         <v>169</v>
       </c>
       <c r="P42" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R42">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V42" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4725,13 +4805,13 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F43" t="s">
         <v>203</v>
       </c>
       <c r="G43" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H43" t="s">
         <v>207</v>
@@ -4744,43 +4824,43 @@
         <v>137</v>
       </c>
       <c r="K43" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N43" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O43" t="s">
         <v>169</v>
       </c>
       <c r="P43" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R43">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4794,13 +4874,13 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
         <v>204</v>
       </c>
       <c r="G44" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H44" t="s">
         <v>208</v>
@@ -4813,43 +4893,43 @@
         <v>137</v>
       </c>
       <c r="K44" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M44" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N44" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O44" t="s">
         <v>169</v>
       </c>
       <c r="P44" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R44">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U44" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V44" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4863,13 +4943,13 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
       </c>
       <c r="G45" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H45" t="s">
         <v>209</v>
@@ -4882,40 +4962,349 @@
         <v>137</v>
       </c>
       <c r="K45" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M45" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N45" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O45" t="s">
         <v>169</v>
       </c>
       <c r="P45" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R45">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T45" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" t="s">
+        <v>253</v>
+      </c>
+      <c r="H46" t="s">
+        <v>272</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J46" t="s">
+        <v>137</v>
+      </c>
+      <c r="M46" t="s">
+        <v>289</v>
+      </c>
+      <c r="N46" t="s">
+        <v>291</v>
+      </c>
+      <c r="O46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P46" t="s">
         <v>267</v>
       </c>
-      <c r="U45" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="V45" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="W45" t="s">
-        <v>245</v>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>271</v>
+      </c>
+      <c r="F47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" t="s">
+        <v>282</v>
+      </c>
+      <c r="H47" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J47" t="s">
+        <v>137</v>
+      </c>
+      <c r="M47" t="s">
+        <v>287</v>
+      </c>
+      <c r="N47" t="s">
+        <v>291</v>
+      </c>
+      <c r="O47" t="s">
+        <v>169</v>
+      </c>
+      <c r="P47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" t="s">
+        <v>281</v>
+      </c>
+      <c r="G48" t="s">
+        <v>253</v>
+      </c>
+      <c r="H48" t="s">
+        <v>274</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J48" t="s">
+        <v>137</v>
+      </c>
+      <c r="M48" t="s">
+        <v>292</v>
+      </c>
+      <c r="N48" t="s">
+        <v>291</v>
+      </c>
+      <c r="O48" t="s">
+        <v>169</v>
+      </c>
+      <c r="P48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" t="s">
+        <v>285</v>
+      </c>
+      <c r="H49" t="s">
+        <v>275</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J49" t="s">
+        <v>137</v>
+      </c>
+      <c r="M49" t="s">
+        <v>293</v>
+      </c>
+      <c r="N49" t="s">
+        <v>291</v>
+      </c>
+      <c r="O49" t="s">
+        <v>169</v>
+      </c>
+      <c r="P49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" t="s">
+        <v>276</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J50" t="s">
+        <v>137</v>
+      </c>
+      <c r="M50" t="s">
+        <v>288</v>
+      </c>
+      <c r="N50" t="s">
+        <v>291</v>
+      </c>
+      <c r="O50" t="s">
+        <v>169</v>
+      </c>
+      <c r="P50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" t="s">
+        <v>284</v>
+      </c>
+      <c r="H51" t="s">
+        <v>277</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J51" t="s">
+        <v>137</v>
+      </c>
+      <c r="M51" t="s">
+        <v>294</v>
+      </c>
+      <c r="N51" t="s">
+        <v>291</v>
+      </c>
+      <c r="O51" t="s">
+        <v>169</v>
+      </c>
+      <c r="P51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52" t="s">
+        <v>282</v>
+      </c>
+      <c r="H52" t="s">
+        <v>278</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J52" t="s">
+        <v>137</v>
+      </c>
+      <c r="M52" t="s">
+        <v>290</v>
+      </c>
+      <c r="N52" t="s">
+        <v>291</v>
+      </c>
+      <c r="O52" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itineris\ITINERIS-EVsVRE\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/_Paolo_noGIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD2688-080E-4004-B365-BD4576497937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{040CEFF4-E44D-0746-827F-4B6C5AECCF2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
     <sheet name="EV" sheetId="2" r:id="rId2"/>
     <sheet name="datasets" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">datasets!$A$1:$W$45</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="298">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -444,9 +447,6 @@
     <t>timeseries</t>
   </si>
   <si>
-    <t>chlorophyll concentration in surface water</t>
-  </si>
-  <si>
     <t>Clorofilla da sensore su boa E1 LTER ITALIA</t>
   </si>
   <si>
@@ -492,236 +492,590 @@
     <t>http://getit.lteritalia.it/observations/sos</t>
   </si>
   <si>
+    <t>http://www.get-it.it/sensors/getit.lteritalia.it/procedure/noOwnerDeclared/noModelDeclared/noSerialNumberDeclared/1286194C-A5DF-11DF-8ED7-1602DFD72097</t>
+  </si>
+  <si>
+    <t>9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
+  </si>
+  <si>
+    <t>Daily mean air temperature (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily minimum air temperatrure (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily maximum air temperature (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Daily precipitation (2000-2024) Collelongo</t>
+  </si>
+  <si>
+    <t>Daily mean air relative humidity (2000-2024) Colellongo</t>
+  </si>
+  <si>
+    <t>Corine Land Cover 2018 Collelongo</t>
+  </si>
+  <si>
+    <t>CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</t>
+  </si>
+  <si>
+    <t>EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6869436a-80f4-4c6d-954b-a730b348d7ce </t>
+  </si>
+  <si>
+    <t>Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>rasterTS</t>
+  </si>
+  <si>
+    <t>shapefile</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tg_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tn_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tx_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/rr_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/hu_ens_mean_0.1deg_reg_v29.0e.nc</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/corine-land-cover/clc2018#download</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom initiation date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom termination date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Bloom duration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Integrated bloom chlorophyll-a using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Mean chlorophyll-a concentration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Date of maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>https://sdi.eea.europa.eu/data/28d6b823-e2fd-4bf4-a6aa-cb6a359c52da</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8402932/files/OCCCIv6_4KM_PHENOLOGY_CHLOR_A.nc?download=1</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/preprints/essd-2024-21/essd-2024-21.pdf</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2017JD028200</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/corine-land-cover</t>
+  </si>
+  <si>
+    <t>https://www.eea.europa.eu/en/datahub/datahubitem-view/47e902f8-8237-415b-91fc-6d1522b11417</t>
+  </si>
+  <si>
+    <t>Copernicus</t>
+  </si>
+  <si>
+    <t>EEA</t>
+  </si>
+  <si>
+    <t>Monthly phytoplankton carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly diatoms carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly nanophytoplankton carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly picophytoplankton carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly dinoflagellates carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>Monthly mass concentration of chlorophyll-a (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly zooplankton carbon biomass (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly diatoms in chlorophyll concentration (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly nanophytoplankton in chlorophyll concentration (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly picophytoplankton in chlorophyll concentration (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly dinoflagellates in chlorophyll concentration (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>Monthly dissolved molecular oxygen in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly net primary production of biomass expressed as carbon per unit (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Collelongo Selva Piana</t>
+  </si>
+  <si>
+    <t>collelongo</t>
+  </si>
+  <si>
+    <t>https://deims.org/9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
+  </si>
+  <si>
+    <t>MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>Monthly concentration of ammonium in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly concentration of nitrates in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly concentration of inorganic phosphate in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>Monthly concentration of silicates in sea water (2022-2024) Delta Po - Costa Romagnola</t>
+  </si>
+  <si>
+    <t>MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
+  </si>
+  <si>
+    <t>Var_identifier</t>
+  </si>
+  <si>
+    <t>MeasurementUnit</t>
+  </si>
+  <si>
+    <t>landingPage</t>
+  </si>
+  <si>
+    <t>accessURL</t>
+  </si>
+  <si>
+    <t>Species distribution of terrestrial plants</t>
+  </si>
+  <si>
+    <t>sea_nutrients</t>
+  </si>
+  <si>
+    <t>sea_production</t>
+  </si>
+  <si>
+    <t>sea_phenology</t>
+  </si>
+  <si>
+    <t>sea_chlorophyll</t>
+  </si>
+  <si>
+    <t>sea_oxygen</t>
+  </si>
+  <si>
+    <t>lake_production</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>deg_C</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>perc</t>
+  </si>
+  <si>
+    <t>https://data.marine.copernicus.eu/product/MEDSEA_ANALYSISFORECAST_BGC_006_014/files?subdataset=cmems_mod_med_bgc-nut_anfc_4.2km_P1M-m_202211</t>
+  </si>
+  <si>
+    <t>https://catalogue.marine.copernicus.eu/documents/PUM/CMEMS-MED-PUM-006-014.pdf</t>
+  </si>
+  <si>
+    <t>https://data.marine.copernicus.eu/product/MEDSEA_ANALYSISFORECAST_BGC_006_014/files?subdataset=cmems_mod_med_bgc-pft_anfc_4.2km_P1M-m_202311</t>
+  </si>
+  <si>
+    <t>https://surfobs.climate.copernicus.eu/dataaccess/access_eobs.php</t>
+  </si>
+  <si>
+    <t>surface_temperature</t>
+  </si>
+  <si>
+    <t>SpatialCoverage</t>
+  </si>
+  <si>
+    <t>SpatialResolution</t>
+  </si>
+  <si>
+    <t>SpatialUnit</t>
+  </si>
+  <si>
+    <t>TemporalResolution</t>
+  </si>
+  <si>
+    <t>TemporalExtent</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA</t>
+  </si>
+  <si>
+    <t>1950-2024</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>CC BY</t>
+  </si>
+  <si>
+    <t>Net primary production (2000-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>2000-2022</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>days since 1998-06-26 00:00:00</t>
+  </si>
+  <si>
+    <t>days since 1998-08-05 00:00:00</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>mg m-3 bloom-1</t>
+  </si>
+  <si>
+    <t>mg m-3</t>
+  </si>
+  <si>
+    <t>days since 1998-07-20 00:00:00</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8402932</t>
+  </si>
+  <si>
+    <t>2022-2024</t>
+  </si>
+  <si>
+    <t>1998-2023</t>
+  </si>
+  <si>
+    <t>gC m-1</t>
+  </si>
+  <si>
+    <t>mmol m-3</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>mg m-3 day-1</t>
+  </si>
+  <si>
+    <t>https://data.marine.copernicus.eu/product/MEDSEA_ANALYSISFORECAST_BGC_006_014/files?subdataset=cmems_mod_med_bgc-nut_anfc_4.2km_P1D-m_202211</t>
+  </si>
+  <si>
+    <t>https://data.marine.copernicus.eu/product/MEDSEA_ANALYSISFORECAST_BGC_006_014/files?subdataset=cmems_mod_med_bgc-co2_anfc_4.2km_P1D-m_202211</t>
+  </si>
+  <si>
+    <t>https://www.copernicus.eu/sites/default/files/styles/image_img_fluid/public/images/media/low/295955-Copernicus_logo_node_full_image_2.jpg?itok=rxBru8V4</t>
+  </si>
+  <si>
+    <t>https://www.eea.europa.eu/en/newsroom/branding-materials/eea_logo_compact_en.png/@@images/image/preview</t>
+  </si>
+  <si>
+    <t>EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
     <t>procedure</t>
   </si>
   <si>
-    <t>http://www.get-it.it/sensors/getit.lteritalia.it/procedure/noOwnerDeclared/noModelDeclared/noSerialNumberDeclared/1286194C-A5DF-11DF-8ED7-1602DFD72097</t>
-  </si>
-  <si>
-    <t>9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
-  </si>
-  <si>
-    <t>surface temperature</t>
-  </si>
-  <si>
-    <t>precipitation</t>
-  </si>
-  <si>
-    <t>species distribution of terrestrial plants</t>
-  </si>
-  <si>
-    <t>Daily mean air temperature (2000-2024) Colellongo</t>
-  </si>
-  <si>
-    <t>Daily minimum air temperatrure (2000-2024) Colellongo</t>
-  </si>
-  <si>
-    <t>Daily maximum air temperature (2000-2024) Colellongo</t>
-  </si>
-  <si>
-    <t>Daily precipitation (2000-2024) Collelongo</t>
-  </si>
-  <si>
-    <t>Daily mean air relative humidity (2000-2024) Colellongo</t>
-  </si>
-  <si>
-    <t>Corine Land Cover 2018 Collelongo</t>
-  </si>
-  <si>
-    <t>freshwater ecosystem productivity</t>
-  </si>
-  <si>
-    <t>ocean, biochemical: ocean colour</t>
-  </si>
-  <si>
-    <t>terrestrial ecosystem productivity</t>
-  </si>
-  <si>
-    <t>Net primary production (2000-2020) Collelongo</t>
-  </si>
-  <si>
-    <t>NPP_EEA_Collelongo.tif</t>
-  </si>
-  <si>
-    <t>CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</t>
-  </si>
-  <si>
-    <t>EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6869436a-80f4-4c6d-954b-a730b348d7ce </t>
-  </si>
-  <si>
-    <t>Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>rasterTS</t>
-  </si>
-  <si>
-    <t>shapefile</t>
-  </si>
-  <si>
-    <t>Zenodo</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tg_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tn_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/tx_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/rr_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://knmi-ecad-assets-prd.s3.amazonaws.com/ensembles/data/Grid_0.1deg_reg_ensemble/hu_ens_mean_0.1deg_reg_v29.0e.nc</t>
-  </si>
-  <si>
-    <t>https://land.copernicus.eu/en/products/corine-land-cover/clc2018#download</t>
-  </si>
-  <si>
-    <t>Bloom initiation date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom termination date using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom duration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Integrated bloom chlorophyll-a using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Mean chlorophyll-a concentration using the threshold method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom initiation date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom termination date using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom duration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Integrated bloom chlorophyll-a using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Mean chlorophyll-a concentration using the cumulative sum method (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom initiation date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom termination date using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Bloom duration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Integrated bloom chlorophyll-a using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Mean chlorophyll-a concentration using the median rate of change (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>Date of maximum chlorophyll-a concentration (1998-2024) Delta Po - Costa Romagnola</t>
-  </si>
-  <si>
-    <t>https://sdi.eea.europa.eu/data/28d6b823-e2fd-4bf4-a6aa-cb6a359c52da</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/8402932/files/OCCCIv6_4KM_PHENOLOGY_CHLOR_A.nc?download=1</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/preprints/essd-2024-21/essd-2024-21.pdf</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2017JD028200</t>
-  </si>
-  <si>
-    <t>https://land.copernicus.eu/en/products/corine-land-cover</t>
-  </si>
-  <si>
-    <t>https://www.eea.europa.eu/en/datahub/datahubitem-view/47e902f8-8237-415b-91fc-6d1522b11417</t>
-  </si>
-  <si>
-    <t>Copernicus</t>
-  </si>
-  <si>
-    <t>EEA</t>
+    <t>land_phenology</t>
+  </si>
+  <si>
+    <t>CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>End of the flowering season (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Amplitude of the flowering season (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Length of the flowering season (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Day of the flowering peak (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Slope of the greening senescence of the flowering period (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Slope of the greening up of the flowering period (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>Start of the flowering season (2017-2022) Collelongo</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-end-of-season-date</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-season-maximum-date</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-season-amplitude</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-start-of-season-date</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/map-viewer</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-season-length</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-slope-of-green-up-period</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/en/products/vegetation/high-resolution-slope-of-green-down-period</t>
+  </si>
+  <si>
+    <t>land_production</t>
+  </si>
+  <si>
+    <t>land_speciesdristrib</t>
+  </si>
+  <si>
+    <t>surface_precipitation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,13 +1132,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -809,7 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -829,10 +1195,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -848,7 +1218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1168,21 +1538,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="33.33203125" customWidth="1"/>
     <col min="6" max="6" width="48.6640625" customWidth="1"/>
     <col min="7" max="7" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +1575,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1222,14 +1592,14 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1245,18 +1615,38 @@
       <c r="E3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{A6CEBC6C-6FB5-F04B-BB51-DD7B5F9B2127}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{6FE84E00-F461-0140-90CD-A5B35229E2F2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1267,16 +1657,16 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" activeCellId="1" sqref="B2 B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1712,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1735,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="18">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1388,7 +1778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1411,7 +1801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1434,7 +1824,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1457,7 +1847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1480,7 +1870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1503,7 +1893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1523,7 +1913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1546,7 +1936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -1569,7 +1959,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1614,959 +2004,3318 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="116.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="143.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="152.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
+    <col min="6" max="6" width="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="125.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="156.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="162.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="170.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",H2)</f>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f t="shared" ref="I3:I52" si="0">+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",H3)</f>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="L3" s="1"/>
+      <c r="O3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="8" t="str">
-        <f>+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",E2)</f>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F28" si="0">+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",E3)</f>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
-      </c>
-      <c r="G3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="8" t="str">
+      <c r="G4" s="11"/>
+      <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" t="s">
         <v>104</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
         <v>107</v>
       </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="8" t="str">
+      <c r="G5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" t="s">
-        <v>176</v>
-      </c>
       <c r="J5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" t="s">
+        <v>228</v>
+      </c>
+      <c r="O5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>237</v>
+      </c>
+      <c r="R5">
+        <v>0.1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>238</v>
+      </c>
+      <c r="T5" t="s">
+        <v>239</v>
+      </c>
+      <c r="U5" t="s">
+        <v>242</v>
+      </c>
+      <c r="V5" t="s">
+        <v>240</v>
+      </c>
+      <c r="W5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="8" t="str">
+      <c r="G6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" t="s">
-        <v>176</v>
-      </c>
       <c r="J6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="K6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O6" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>237</v>
+      </c>
+      <c r="R6">
+        <v>0.1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>238</v>
+      </c>
+      <c r="T6" t="s">
+        <v>239</v>
+      </c>
+      <c r="U6" t="s">
+        <v>242</v>
+      </c>
+      <c r="V6" t="s">
+        <v>240</v>
+      </c>
+      <c r="W6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
         <v>109</v>
       </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="8" t="str">
+      <c r="G7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" t="s">
-        <v>176</v>
-      </c>
       <c r="J7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="K7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" t="s">
+        <v>228</v>
+      </c>
+      <c r="O7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>237</v>
+      </c>
+      <c r="R7">
+        <v>0.1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>238</v>
+      </c>
+      <c r="T7" t="s">
+        <v>239</v>
+      </c>
+      <c r="U7" t="s">
+        <v>242</v>
+      </c>
+      <c r="V7" t="s">
+        <v>240</v>
+      </c>
+      <c r="W7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" t="s">
         <v>110</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" t="s">
         <v>115</v>
       </c>
-      <c r="E8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="8" t="str">
+      <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" t="s">
-        <v>176</v>
-      </c>
       <c r="J8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="K8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" t="s">
+        <v>228</v>
+      </c>
+      <c r="O8" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>237</v>
+      </c>
+      <c r="R8">
+        <v>0.1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>238</v>
+      </c>
+      <c r="T8" t="s">
+        <v>239</v>
+      </c>
+      <c r="U8" t="s">
+        <v>242</v>
+      </c>
+      <c r="V8" t="s">
+        <v>240</v>
+      </c>
+      <c r="W8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="8" t="str">
+        <v>297</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
-      <c r="G9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" t="s">
-        <v>176</v>
-      </c>
       <c r="J9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="K9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" t="s">
+        <v>228</v>
+      </c>
+      <c r="O9" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>237</v>
+      </c>
+      <c r="R9">
+        <v>0.1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>238</v>
+      </c>
+      <c r="T9" t="s">
+        <v>239</v>
+      </c>
+      <c r="U9" t="s">
+        <v>242</v>
+      </c>
+      <c r="V9" t="s">
+        <v>240</v>
+      </c>
+      <c r="W9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="8" t="str">
+        <v>296</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</v>
       </c>
-      <c r="G10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" t="s">
-        <v>177</v>
-      </c>
       <c r="J10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>108</v>
+        <v>138</v>
+      </c>
+      <c r="K10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>237</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T10" t="s">
+        <v>244</v>
+      </c>
+      <c r="U10" t="s">
+        <v>245</v>
+      </c>
+      <c r="V10" t="s">
+        <v>240</v>
+      </c>
+      <c r="W10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>249</v>
+      </c>
+      <c r="R11">
+        <v>196</v>
+      </c>
+      <c r="S11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s">
+        <v>250</v>
+      </c>
+      <c r="U11" t="s">
+        <v>248</v>
+      </c>
+      <c r="V11" t="s">
+        <v>240</v>
+      </c>
+      <c r="W11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H12" t="s">
         <v>120</v>
       </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/NPP_EEA_Collelongo.tif</v>
-      </c>
-      <c r="G11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" t="s">
         <v>147</v>
       </c>
-      <c r="H12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="8" t="str">
+      <c r="G13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" t="s">
-        <v>175</v>
-      </c>
       <c r="J13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" t="s">
+        <v>257</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>158</v>
-      </c>
       <c r="E14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="8" t="str">
+        <v>217</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" t="s">
-        <v>175</v>
-      </c>
       <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s">
+        <v>257</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="G15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I15" t="s">
-        <v>175</v>
-      </c>
       <c r="J15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="s">
+        <v>165</v>
+      </c>
+      <c r="N15" t="s">
+        <v>257</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="8" t="str">
+        <v>218</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" t="s">
-        <v>175</v>
-      </c>
       <c r="J16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="s">
+        <v>165</v>
+      </c>
+      <c r="N16" t="s">
+        <v>257</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R16">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>161</v>
-      </c>
       <c r="E17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="8" t="str">
+        <v>217</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" t="s">
-        <v>175</v>
-      </c>
       <c r="J17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N17" t="s">
+        <v>257</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R17">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>162</v>
-      </c>
       <c r="E18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" t="str">
+        <v>217</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G18" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" t="s">
-        <v>175</v>
-      </c>
       <c r="J18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="s">
+        <v>165</v>
+      </c>
+      <c r="N18" t="s">
+        <v>257</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>163</v>
-      </c>
       <c r="E19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="8" t="str">
+        <v>217</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I19" t="s">
-        <v>175</v>
-      </c>
       <c r="J19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N19" t="s">
+        <v>257</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R19">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="8" t="str">
+        <v>218</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" t="s">
-        <v>174</v>
-      </c>
-      <c r="I20" t="s">
-        <v>175</v>
-      </c>
       <c r="J20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" t="s">
+        <v>257</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R20">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" t="s">
         <v>129</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" t="s">
-        <v>175</v>
-      </c>
       <c r="J21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" t="s">
+        <v>257</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R21">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>166</v>
-      </c>
       <c r="E22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="8" t="str">
+        <v>217</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" t="s">
-        <v>174</v>
-      </c>
-      <c r="I22" t="s">
-        <v>175</v>
-      </c>
       <c r="J22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" t="s">
+        <v>257</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R22">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
       <c r="E23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="8" t="str">
+        <v>217</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" t="s">
-        <v>175</v>
-      </c>
       <c r="J23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" t="s">
+        <v>165</v>
+      </c>
+      <c r="N23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R23">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
       <c r="E24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" t="str">
+        <v>217</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" t="s">
-        <v>175</v>
-      </c>
       <c r="J24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N24" t="s">
+        <v>257</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R24">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="8" t="str">
+        <v>218</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G25" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" t="s">
-        <v>175</v>
-      </c>
       <c r="J25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="M25" t="s">
+        <v>165</v>
+      </c>
+      <c r="N25" t="s">
+        <v>257</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="8" t="str">
+        <v>218</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" t="s">
-        <v>175</v>
-      </c>
       <c r="J26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" t="s">
+        <v>165</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" t="str">
+        <v>218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" t="s">
+        <v>255</v>
+      </c>
+      <c r="H27" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" t="s">
-        <v>175</v>
-      </c>
       <c r="J27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R27">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="8" t="str">
+        <v>218</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
-      <c r="G28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="R28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="s">
+        <v>226</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R29">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U29" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J30" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="s">
+        <v>226</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R30">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J31" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" t="s">
+        <v>226</v>
+      </c>
+      <c r="N31" t="s">
+        <v>227</v>
+      </c>
+      <c r="O31" t="s">
+        <v>169</v>
+      </c>
+      <c r="P31" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" t="s">
         <v>174</v>
       </c>
-      <c r="I28" t="s">
+      <c r="G32" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" t="s">
+        <v>227</v>
+      </c>
+      <c r="M32" t="s">
+        <v>226</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R32">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" t="s">
         <v>175</v>
       </c>
-      <c r="J28" t="s">
-        <v>149</v>
+      <c r="G33" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J33" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" t="s">
+        <v>227</v>
+      </c>
+      <c r="M33" t="s">
+        <v>226</v>
+      </c>
+      <c r="N33" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R33">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" t="s">
+        <v>255</v>
+      </c>
+      <c r="H34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J34" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" t="s">
+        <v>227</v>
+      </c>
+      <c r="M34" t="s">
+        <v>226</v>
+      </c>
+      <c r="N34" t="s">
+        <v>227</v>
+      </c>
+      <c r="O34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P34" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R34">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J35" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" t="s">
+        <v>227</v>
+      </c>
+      <c r="M35" t="s">
+        <v>226</v>
+      </c>
+      <c r="N35" t="s">
+        <v>227</v>
+      </c>
+      <c r="O35" t="s">
+        <v>169</v>
+      </c>
+      <c r="P35" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R35">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" t="s">
+        <v>196</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J36" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" t="s">
+        <v>227</v>
+      </c>
+      <c r="M36" t="s">
+        <v>226</v>
+      </c>
+      <c r="N36" t="s">
+        <v>227</v>
+      </c>
+      <c r="O36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R36">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" t="s">
+        <v>197</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J37" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" t="s">
+        <v>227</v>
+      </c>
+      <c r="M37" t="s">
+        <v>226</v>
+      </c>
+      <c r="N37" t="s">
+        <v>227</v>
+      </c>
+      <c r="O37" t="s">
+        <v>169</v>
+      </c>
+      <c r="P37" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" t="s">
+        <v>255</v>
+      </c>
+      <c r="H38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" t="s">
+        <v>227</v>
+      </c>
+      <c r="M38" t="s">
+        <v>226</v>
+      </c>
+      <c r="N38" t="s">
+        <v>227</v>
+      </c>
+      <c r="O38" t="s">
+        <v>169</v>
+      </c>
+      <c r="P38" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H39" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" t="s">
+        <v>227</v>
+      </c>
+      <c r="M39" t="s">
+        <v>226</v>
+      </c>
+      <c r="N39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R39">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U39" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" t="s">
+        <v>261</v>
+      </c>
+      <c r="H40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" t="s">
+        <v>266</v>
+      </c>
+      <c r="M40" t="s">
+        <v>226</v>
+      </c>
+      <c r="N40" t="s">
+        <v>227</v>
+      </c>
+      <c r="O40" t="s">
+        <v>169</v>
+      </c>
+      <c r="P40" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R40">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" t="s">
+        <v>264</v>
+      </c>
+      <c r="H41" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J41" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" t="s">
+        <v>266</v>
+      </c>
+      <c r="M41" t="s">
+        <v>226</v>
+      </c>
+      <c r="N41" t="s">
+        <v>227</v>
+      </c>
+      <c r="O41" t="s">
+        <v>169</v>
+      </c>
+      <c r="P41" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R41">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U41" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J42" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" t="s">
+        <v>265</v>
+      </c>
+      <c r="M42" t="s">
+        <v>226</v>
+      </c>
+      <c r="N42" t="s">
+        <v>225</v>
+      </c>
+      <c r="O42" t="s">
+        <v>169</v>
+      </c>
+      <c r="P42" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R42">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J43" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" t="s">
+        <v>265</v>
+      </c>
+      <c r="M43" t="s">
+        <v>226</v>
+      </c>
+      <c r="N43" t="s">
+        <v>225</v>
+      </c>
+      <c r="O43" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R43">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" t="s">
+        <v>261</v>
+      </c>
+      <c r="H44" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J44" t="s">
+        <v>137</v>
+      </c>
+      <c r="K44" t="s">
+        <v>265</v>
+      </c>
+      <c r="M44" t="s">
+        <v>226</v>
+      </c>
+      <c r="N44" t="s">
+        <v>225</v>
+      </c>
+      <c r="O44" t="s">
+        <v>169</v>
+      </c>
+      <c r="P44" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R44">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" t="s">
+        <v>261</v>
+      </c>
+      <c r="H45" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+      </c>
+      <c r="J45" t="s">
+        <v>137</v>
+      </c>
+      <c r="K45" t="s">
+        <v>265</v>
+      </c>
+      <c r="M45" t="s">
+        <v>226</v>
+      </c>
+      <c r="N45" t="s">
+        <v>225</v>
+      </c>
+      <c r="O45" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R45">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" t="s">
+        <v>253</v>
+      </c>
+      <c r="H46" t="s">
+        <v>272</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J46" t="s">
+        <v>137</v>
+      </c>
+      <c r="M46" t="s">
+        <v>289</v>
+      </c>
+      <c r="N46" t="s">
+        <v>291</v>
+      </c>
+      <c r="O46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>271</v>
+      </c>
+      <c r="F47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" t="s">
+        <v>282</v>
+      </c>
+      <c r="H47" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J47" t="s">
+        <v>137</v>
+      </c>
+      <c r="M47" t="s">
+        <v>287</v>
+      </c>
+      <c r="N47" t="s">
+        <v>291</v>
+      </c>
+      <c r="O47" t="s">
+        <v>169</v>
+      </c>
+      <c r="P47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" t="s">
+        <v>281</v>
+      </c>
+      <c r="G48" t="s">
+        <v>253</v>
+      </c>
+      <c r="H48" t="s">
+        <v>274</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J48" t="s">
+        <v>137</v>
+      </c>
+      <c r="M48" t="s">
+        <v>292</v>
+      </c>
+      <c r="N48" t="s">
+        <v>291</v>
+      </c>
+      <c r="O48" t="s">
+        <v>169</v>
+      </c>
+      <c r="P48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" t="s">
+        <v>285</v>
+      </c>
+      <c r="H49" t="s">
+        <v>275</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J49" t="s">
+        <v>137</v>
+      </c>
+      <c r="M49" t="s">
+        <v>293</v>
+      </c>
+      <c r="N49" t="s">
+        <v>291</v>
+      </c>
+      <c r="O49" t="s">
+        <v>169</v>
+      </c>
+      <c r="P49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" t="s">
+        <v>276</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J50" t="s">
+        <v>137</v>
+      </c>
+      <c r="M50" t="s">
+        <v>288</v>
+      </c>
+      <c r="N50" t="s">
+        <v>291</v>
+      </c>
+      <c r="O50" t="s">
+        <v>169</v>
+      </c>
+      <c r="P50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" t="s">
+        <v>284</v>
+      </c>
+      <c r="H51" t="s">
+        <v>277</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J51" t="s">
+        <v>137</v>
+      </c>
+      <c r="M51" t="s">
+        <v>294</v>
+      </c>
+      <c r="N51" t="s">
+        <v>291</v>
+      </c>
+      <c r="O51" t="s">
+        <v>169</v>
+      </c>
+      <c r="P51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52" t="s">
+        <v>282</v>
+      </c>
+      <c r="H52" t="s">
+        <v>278</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      </c>
+      <c r="J52" t="s">
+        <v>137</v>
+      </c>
+      <c r="M52" t="s">
+        <v>290</v>
+      </c>
+      <c r="N52" t="s">
+        <v>291</v>
+      </c>
+      <c r="O52" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{553D2B69-5BE6-874E-AC5E-A635C6328440}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{2F590B1D-8210-384E-8018-FB4572E03C72}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{1474173C-E4BA-6A49-BB1E-5A62B026D73E}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{553D2B69-5BE6-874E-AC5E-A635C6328440}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{2F590B1D-8210-384E-8018-FB4572E03C72}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{FE14985B-235F-4F7E-92C5-8557ABF5B36A}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{613A3A06-9B48-3547-82B1-7D5CBFE99FF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/_Paolo_noGIT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{040CEFF4-E44D-0746-827F-4B6C5AECCF2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03A4FE3-6618-E54C-97A3-24C19720D8FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,17 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">datasets!$A$1:$W$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2006,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2132,8 +2121,8 @@
         <v>88</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",H2)</f>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
+        <f>+_xlfn.CONCAT("~/VREFolders/ITINERIS_EV/DATI/",H2)</f>
+        <v>~/VREFolders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
       </c>
       <c r="J2" t="s">
         <v>89</v>
@@ -2169,8 +2158,8 @@
         <v>91</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I52" si="0">+_xlfn.CONCAT("~/VRE Folders/ITINERIS_EV/DATI/",H3)</f>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
+        <f t="shared" ref="I3:I52" si="0">+_xlfn.CONCAT("~/VREFolders/ITINERIS_EV/DATI/",H3)</f>
+        <v>~/VREFolders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
       </c>
       <c r="J3" t="s">
         <v>99</v>
@@ -2208,7 +2197,7 @@
       <c r="G4" s="11"/>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/</v>
       </c>
       <c r="J4" t="s">
         <v>103</v>
@@ -2253,7 +2242,7 @@
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J5" t="s">
         <v>137</v>
@@ -2322,7 +2311,7 @@
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J6" t="s">
         <v>137</v>
@@ -2391,7 +2380,7 @@
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J7" t="s">
         <v>137</v>
@@ -2460,7 +2449,7 @@
       </c>
       <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J8" t="s">
         <v>137</v>
@@ -2529,7 +2518,7 @@
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J9" t="s">
         <v>137</v>
@@ -2598,7 +2587,7 @@
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</v>
       </c>
       <c r="J10" t="s">
         <v>138</v>
@@ -2664,7 +2653,7 @@
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J11" t="s">
         <v>137</v>
@@ -2728,9 +2717,9 @@
       <c r="H12" t="s">
         <v>120</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J12" t="s">
         <v>137</v>
@@ -2796,7 +2785,7 @@
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J13" t="s">
         <v>137</v>
@@ -2862,7 +2851,7 @@
       </c>
       <c r="I14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J14" t="s">
         <v>137</v>
@@ -2926,9 +2915,9 @@
       <c r="H15" t="s">
         <v>123</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J15" t="s">
         <v>137</v>
@@ -2994,7 +2983,7 @@
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J16" t="s">
         <v>137</v>
@@ -3060,7 +3049,7 @@
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J17" t="s">
         <v>137</v>
@@ -3124,9 +3113,9 @@
       <c r="H18" t="s">
         <v>126</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J18" t="s">
         <v>137</v>
@@ -3192,7 +3181,7 @@
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J19" t="s">
         <v>137</v>
@@ -3258,7 +3247,7 @@
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J20" t="s">
         <v>137</v>
@@ -3322,9 +3311,9 @@
       <c r="H21" t="s">
         <v>129</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -3390,7 +3379,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J22" t="s">
         <v>137</v>
@@ -3456,7 +3445,7 @@
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J23" t="s">
         <v>137</v>
@@ -3520,9 +3509,9 @@
       <c r="H24" t="s">
         <v>132</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J24" t="s">
         <v>137</v>
@@ -3588,7 +3577,7 @@
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J25" t="s">
         <v>137</v>
@@ -3654,7 +3643,7 @@
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J26" t="s">
         <v>137</v>
@@ -3718,9 +3707,9 @@
       <c r="H27" t="s">
         <v>135</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J27" t="s">
         <v>137</v>
@@ -3786,7 +3775,7 @@
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J28" t="s">
         <v>137</v>
@@ -3852,7 +3841,7 @@
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J29" t="s">
         <v>137</v>
@@ -3919,9 +3908,9 @@
       <c r="H30" t="s">
         <v>193</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J30" t="s">
         <v>137</v>
@@ -3990,7 +3979,7 @@
       </c>
       <c r="I31" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J31" t="s">
         <v>137</v>
@@ -4059,7 +4048,7 @@
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J32" t="s">
         <v>137</v>
@@ -4126,9 +4115,9 @@
       <c r="H33" t="s">
         <v>191</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J33" t="s">
         <v>137</v>
@@ -4197,7 +4186,7 @@
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J34" t="s">
         <v>137</v>
@@ -4266,7 +4255,7 @@
       </c>
       <c r="I35" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J35" t="s">
         <v>137</v>
@@ -4333,9 +4322,9 @@
       <c r="H36" t="s">
         <v>196</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J36" t="s">
         <v>137</v>
@@ -4404,7 +4393,7 @@
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J37" t="s">
         <v>137</v>
@@ -4473,7 +4462,7 @@
       </c>
       <c r="I38" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J38" t="s">
         <v>137</v>
@@ -4540,9 +4529,9 @@
       <c r="H39" t="s">
         <v>199</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J39" t="s">
         <v>137</v>
@@ -4611,7 +4600,7 @@
       </c>
       <c r="I40" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J40" t="s">
         <v>137</v>
@@ -4680,7 +4669,7 @@
       </c>
       <c r="I41" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J41" t="s">
         <v>137</v>
@@ -4749,7 +4738,7 @@
       </c>
       <c r="I42" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J42" t="s">
         <v>137</v>
@@ -4818,7 +4807,7 @@
       </c>
       <c r="I43" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J43" t="s">
         <v>137</v>
@@ -4887,7 +4876,7 @@
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J44" t="s">
         <v>137</v>
@@ -4956,7 +4945,7 @@
       </c>
       <c r="I45" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J45" t="s">
         <v>137</v>
@@ -5023,9 +5012,9 @@
       <c r="H46" t="s">
         <v>272</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J46" t="s">
         <v>137</v>
@@ -5070,7 +5059,7 @@
       </c>
       <c r="I47" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J47" t="s">
         <v>137</v>
@@ -5115,7 +5104,7 @@
       </c>
       <c r="I48" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J48" t="s">
         <v>137</v>
@@ -5155,9 +5144,9 @@
       <c r="H49" t="s">
         <v>275</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J49" t="s">
         <v>137</v>
@@ -5202,7 +5191,7 @@
       </c>
       <c r="I50" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J50" t="s">
         <v>137</v>
@@ -5244,7 +5233,7 @@
       </c>
       <c r="I51" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J51" t="s">
         <v>137</v>
@@ -5287,9 +5276,9 @@
       <c r="H52" t="s">
         <v>278</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VRE Folders/ITINERIS_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J52" t="s">
         <v>137</v>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03A4FE3-6618-E54C-97A3-24C19720D8FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E10D28-AB30-034F-879D-89747A7A6E82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1996,7 +1996,7 @@
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I2" sqref="I2:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2121,8 +2121,8 @@
         <v>88</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>+_xlfn.CONCAT("~/VREFolders/ITINERIS_EV/DATI/",H2)</f>
-        <v>~/VREFolders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
+        <f>+_xlfn.CONCAT("~/workspace/VREFolders/ITINERIS_EV/DATI/",H2)</f>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
       </c>
       <c r="J2" t="s">
         <v>89</v>
@@ -2158,8 +2158,8 @@
         <v>91</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I52" si="0">+_xlfn.CONCAT("~/VREFolders/ITINERIS_EV/DATI/",H3)</f>
-        <v>~/VREFolders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
+        <f t="shared" ref="I3:I52" si="0">+_xlfn.CONCAT("~/workspace/VREFolders/ITINERIS_EV/DATI/",H3)</f>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
       </c>
       <c r="J3" t="s">
         <v>99</v>
@@ -2197,7 +2197,7 @@
       <c r="G4" s="11"/>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/</v>
       </c>
       <c r="J4" t="s">
         <v>103</v>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J5" t="s">
         <v>137</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J6" t="s">
         <v>137</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J7" t="s">
         <v>137</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J8" t="s">
         <v>137</v>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J9" t="s">
         <v>137</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</v>
       </c>
       <c r="J10" t="s">
         <v>138</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J11" t="s">
         <v>137</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J12" t="s">
         <v>137</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J13" t="s">
         <v>137</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="I14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J14" t="s">
         <v>137</v>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="I15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J15" t="s">
         <v>137</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J16" t="s">
         <v>137</v>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J17" t="s">
         <v>137</v>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J18" t="s">
         <v>137</v>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J19" t="s">
         <v>137</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J20" t="s">
         <v>137</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J22" t="s">
         <v>137</v>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J23" t="s">
         <v>137</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="I24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J24" t="s">
         <v>137</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J25" t="s">
         <v>137</v>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J26" t="s">
         <v>137</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J27" t="s">
         <v>137</v>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J28" t="s">
         <v>137</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J29" t="s">
         <v>137</v>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="I30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J30" t="s">
         <v>137</v>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="I31" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J31" t="s">
         <v>137</v>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J32" t="s">
         <v>137</v>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J33" t="s">
         <v>137</v>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J34" t="s">
         <v>137</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="I35" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J35" t="s">
         <v>137</v>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="I36" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J36" t="s">
         <v>137</v>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J37" t="s">
         <v>137</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="I38" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J38" t="s">
         <v>137</v>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="I39" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J39" t="s">
         <v>137</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="I40" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J40" t="s">
         <v>137</v>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="I41" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J41" t="s">
         <v>137</v>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="I42" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J42" t="s">
         <v>137</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="I43" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J43" t="s">
         <v>137</v>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J44" t="s">
         <v>137</v>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="I45" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
       </c>
       <c r="J45" t="s">
         <v>137</v>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="I46" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J46" t="s">
         <v>137</v>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="I47" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J47" t="s">
         <v>137</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="I48" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J48" t="s">
         <v>137</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="I49" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J49" t="s">
         <v>137</v>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="I50" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J50" t="s">
         <v>137</v>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="I51" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J51" t="s">
         <v>137</v>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I52" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/VREFolders/ITINERIS_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
       </c>
       <c r="J52" t="s">
         <v>137</v>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E10D28-AB30-034F-879D-89747A7A6E82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67A534-345C-4C4D-A704-7C9057B9C59D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -733,45 +733,6 @@
     <t>https://deims.org/9b1d144a-dc37-4b0e-8cda-1dda1d7667da</t>
   </si>
   <si>
-    <t>MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
     <t>Monthly concentration of ammonium in sea water (2022-2024) Delta Po - Costa Romagnola</t>
   </si>
   <si>
@@ -784,18 +745,6 @@
     <t>Monthly concentration of silicates in sea water (2022-2024) Delta Po - Costa Romagnola</t>
   </si>
   <si>
-    <t>MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</t>
-  </si>
-  <si>
     <t>Var_identifier</t>
   </si>
   <si>
@@ -1058,6 +1007,57 @@
   </si>
   <si>
     <t>surface_precipitation</t>
+  </si>
+  <si>
+    <t>MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
   </si>
 </sst>
 </file>
@@ -1995,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I52"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2028,7 +2028,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
@@ -2040,13 +2040,13 @@
         <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
         <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="H1" t="s">
         <v>87</v>
@@ -2061,13 +2061,13 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="M1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="N1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="O1" t="s">
         <v>95</v>
@@ -2076,25 +2076,25 @@
         <v>98</v>
       </c>
       <c r="Q1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="R1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="S1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="T1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="U1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="V1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="W1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2111,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>90</v>
@@ -2148,7 +2148,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
@@ -2189,7 +2189,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
         <v>102</v>
@@ -2229,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
         <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
         <v>118</v>
@@ -2254,34 +2254,34 @@
         <v>166</v>
       </c>
       <c r="N5" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
         <v>169</v>
       </c>
       <c r="P5" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q5" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="R5">
         <v>0.1</v>
       </c>
       <c r="S5" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T5" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="U5" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="V5" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W5" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2298,13 +2298,13 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
         <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
         <v>117</v>
@@ -2323,34 +2323,34 @@
         <v>166</v>
       </c>
       <c r="N6" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O6" t="s">
         <v>169</v>
       </c>
       <c r="P6" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q6" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="R6">
         <v>0.1</v>
       </c>
       <c r="S6" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T6" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="U6" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="V6" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W6" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2367,13 +2367,13 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
         <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H7" t="s">
         <v>116</v>
@@ -2392,34 +2392,34 @@
         <v>166</v>
       </c>
       <c r="N7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O7" t="s">
         <v>169</v>
       </c>
       <c r="P7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q7" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="R7">
         <v>0.1</v>
       </c>
       <c r="S7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="U7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="V7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2436,13 +2436,13 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="H8" t="s">
         <v>115</v>
@@ -2461,34 +2461,34 @@
         <v>166</v>
       </c>
       <c r="N8" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O8" t="s">
         <v>169</v>
       </c>
       <c r="P8" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q8" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="R8">
         <v>0.1</v>
       </c>
       <c r="S8" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="U8" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="V8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2505,13 +2505,13 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
         <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="H9" t="s">
         <v>114</v>
@@ -2530,34 +2530,34 @@
         <v>166</v>
       </c>
       <c r="N9" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="O9" t="s">
         <v>169</v>
       </c>
       <c r="P9" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q9" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="R9">
         <v>0.1</v>
       </c>
       <c r="S9" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T9" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="U9" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="V9" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W9" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2571,16 +2571,16 @@
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
         <v>112</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
         <v>113</v>
@@ -2602,28 +2602,28 @@
         <v>169</v>
       </c>
       <c r="P10" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q10" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="R10">
         <v>25</v>
       </c>
       <c r="S10" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="T10" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="U10" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="V10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W10" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2640,16 +2640,16 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="H11" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2668,10 +2668,10 @@
         <v>170</v>
       </c>
       <c r="P11" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="Q11" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R11">
         <v>196</v>
@@ -2680,16 +2680,16 @@
         <v>76</v>
       </c>
       <c r="T11" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U11" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="V11" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W11" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2706,13 +2706,13 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
         <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H12" t="s">
         <v>120</v>
@@ -2731,31 +2731,31 @@
         <v>165</v>
       </c>
       <c r="N12" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R12">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2772,13 +2772,13 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
         <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H13" t="s">
         <v>121</v>
@@ -2797,31 +2797,31 @@
         <v>165</v>
       </c>
       <c r="N13" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R13">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2838,13 +2838,13 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
         <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
         <v>122</v>
@@ -2863,31 +2863,31 @@
         <v>165</v>
       </c>
       <c r="N14" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R14">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2904,13 +2904,13 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="H15" t="s">
         <v>123</v>
@@ -2929,31 +2929,31 @@
         <v>165</v>
       </c>
       <c r="N15" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R15">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2970,13 +2970,13 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H16" t="s">
         <v>124</v>
@@ -2995,31 +2995,31 @@
         <v>165</v>
       </c>
       <c r="N16" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R16">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3036,13 +3036,13 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
         <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H17" t="s">
         <v>125</v>
@@ -3061,31 +3061,31 @@
         <v>165</v>
       </c>
       <c r="N17" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R17">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -3102,13 +3102,13 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F18" t="s">
         <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H18" t="s">
         <v>126</v>
@@ -3127,31 +3127,31 @@
         <v>165</v>
       </c>
       <c r="N18" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R18">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3168,13 +3168,13 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
         <v>127</v>
@@ -3193,31 +3193,31 @@
         <v>165</v>
       </c>
       <c r="N19" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R19">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3234,13 +3234,13 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
         <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="H20" t="s">
         <v>128</v>
@@ -3259,31 +3259,31 @@
         <v>165</v>
       </c>
       <c r="N20" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R20">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3300,13 +3300,13 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H21" t="s">
         <v>129</v>
@@ -3325,31 +3325,31 @@
         <v>165</v>
       </c>
       <c r="N21" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R21">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3366,13 +3366,13 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F22" t="s">
         <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H22" t="s">
         <v>130</v>
@@ -3391,31 +3391,31 @@
         <v>165</v>
       </c>
       <c r="N22" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R22">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3432,13 +3432,13 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
         <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H23" t="s">
         <v>131</v>
@@ -3457,31 +3457,31 @@
         <v>165</v>
       </c>
       <c r="N23" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R23">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3498,13 +3498,13 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
         <v>158</v>
       </c>
       <c r="G24" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H24" t="s">
         <v>132</v>
@@ -3523,31 +3523,31 @@
         <v>165</v>
       </c>
       <c r="N24" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R24">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3564,13 +3564,13 @@
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F25" t="s">
         <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="H25" t="s">
         <v>133</v>
@@ -3589,31 +3589,31 @@
         <v>165</v>
       </c>
       <c r="N25" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R25">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3630,13 +3630,13 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F26" t="s">
         <v>160</v>
       </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
         <v>134</v>
@@ -3655,31 +3655,31 @@
         <v>165</v>
       </c>
       <c r="N26" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R26">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3696,13 +3696,13 @@
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F27" t="s">
         <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H27" t="s">
         <v>135</v>
@@ -3721,31 +3721,31 @@
         <v>165</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O27" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R27">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3762,13 +3762,13 @@
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F28" t="s">
         <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="H28" t="s">
         <v>136</v>
@@ -3787,31 +3787,31 @@
         <v>165</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O28" s="11" t="s">
         <v>139</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="R28">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3828,59 +3828,59 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F29" t="s">
         <v>171</v>
       </c>
       <c r="G29" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H29" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J29" t="s">
         <v>137</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O29" t="s">
         <v>169</v>
       </c>
       <c r="P29" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R29">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W29" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3897,59 +3897,59 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F30" t="s">
         <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="I30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J30" t="s">
         <v>137</v>
       </c>
       <c r="K30" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M30" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O30" t="s">
         <v>169</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R30">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W30" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3966,59 +3966,59 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F31" t="s">
         <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="I31" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J31" t="s">
         <v>137</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M31" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s">
         <v>169</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R31">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W31" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -4035,59 +4035,59 @@
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
       </c>
       <c r="G32" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J32" t="s">
         <v>137</v>
       </c>
       <c r="K32" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M32" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N32" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O32" t="s">
         <v>169</v>
       </c>
       <c r="P32" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R32">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W32" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -4104,59 +4104,59 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J33" t="s">
         <v>137</v>
       </c>
       <c r="K33" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M33" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N33" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O33" t="s">
         <v>169</v>
       </c>
       <c r="P33" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R33">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W33" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -4173,59 +4173,59 @@
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H34" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J34" t="s">
         <v>137</v>
       </c>
       <c r="K34" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M34" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N34" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O34" t="s">
         <v>169</v>
       </c>
       <c r="P34" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R34">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W34" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4242,59 +4242,59 @@
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
         <v>178</v>
       </c>
       <c r="G35" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="I35" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J35" t="s">
         <v>137</v>
       </c>
       <c r="K35" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N35" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O35" t="s">
         <v>169</v>
       </c>
       <c r="P35" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R35">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W35" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4311,59 +4311,59 @@
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F36" t="s">
         <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="I36" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J36" t="s">
         <v>137</v>
       </c>
       <c r="K36" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M36" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N36" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O36" t="s">
         <v>169</v>
       </c>
       <c r="P36" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R36">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W36" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4380,59 +4380,59 @@
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
       </c>
       <c r="G37" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J37" t="s">
         <v>137</v>
       </c>
       <c r="K37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N37" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O37" t="s">
         <v>169</v>
       </c>
       <c r="P37" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R37">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4449,59 +4449,59 @@
         <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F38" t="s">
         <v>181</v>
       </c>
       <c r="G38" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="I38" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J38" t="s">
         <v>137</v>
       </c>
       <c r="K38" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M38" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N38" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O38" t="s">
         <v>169</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R38">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V38" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W38" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4518,59 +4518,59 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F39" t="s">
         <v>182</v>
       </c>
       <c r="G39" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H39" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="I39" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J39" t="s">
         <v>137</v>
       </c>
       <c r="K39" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M39" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N39" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O39" t="s">
         <v>169</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R39">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W39" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4587,59 +4587,59 @@
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="I40" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J40" t="s">
         <v>137</v>
       </c>
       <c r="K40" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="M40" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N40" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O40" t="s">
         <v>169</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R40">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V40" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W40" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4656,59 +4656,59 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s">
         <v>185</v>
       </c>
       <c r="G41" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="I41" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J41" t="s">
         <v>137</v>
       </c>
       <c r="K41" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="M41" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N41" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O41" t="s">
         <v>169</v>
       </c>
       <c r="P41" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R41">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W41" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4725,59 +4725,59 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F42" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="I42" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J42" t="s">
         <v>137</v>
       </c>
       <c r="K42" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M42" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N42" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="O42" t="s">
         <v>169</v>
       </c>
       <c r="P42" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R42">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V42" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W42" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4794,59 +4794,59 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G43" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H43" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="I43" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J43" t="s">
         <v>137</v>
       </c>
       <c r="K43" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M43" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N43" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="O43" t="s">
         <v>169</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R43">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W43" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4863,59 +4863,59 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G44" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H44" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J44" t="s">
         <v>137</v>
       </c>
       <c r="K44" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M44" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N44" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="O44" t="s">
         <v>169</v>
       </c>
       <c r="P44" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R44">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U44" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V44" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W44" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4932,59 +4932,59 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G45" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H45" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="I45" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce .tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J45" t="s">
         <v>137</v>
       </c>
       <c r="K45" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M45" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N45" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="O45" t="s">
         <v>169</v>
       </c>
       <c r="P45" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="R45">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="U45" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="V45" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="W45" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -5001,16 +5001,16 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F46" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G46" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="I46" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5020,16 +5020,16 @@
         <v>137</v>
       </c>
       <c r="M46" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="N46" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="O46" t="s">
         <v>169</v>
       </c>
       <c r="P46" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -5046,16 +5046,16 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F47" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="G47" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="H47" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="I47" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5065,16 +5065,16 @@
         <v>137</v>
       </c>
       <c r="M47" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="N47" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="O47" t="s">
         <v>169</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -5091,16 +5091,16 @@
         <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F48" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="G48" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H48" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="I48" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5110,16 +5110,16 @@
         <v>137</v>
       </c>
       <c r="M48" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="N48" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="O48" t="s">
         <v>169</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -5136,13 +5136,13 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F49" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="H49" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="I49" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5152,16 +5152,16 @@
         <v>137</v>
       </c>
       <c r="M49" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="N49" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s">
         <v>169</v>
       </c>
       <c r="P49" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -5178,16 +5178,16 @@
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="H50" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="I50" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5197,16 +5197,16 @@
         <v>137</v>
       </c>
       <c r="M50" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="N50" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="O50" t="s">
         <v>169</v>
       </c>
       <c r="P50" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -5223,13 +5223,13 @@
         <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F51" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="H51" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="I51" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5239,16 +5239,16 @@
         <v>137</v>
       </c>
       <c r="M51" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="N51" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="O51" t="s">
         <v>169</v>
       </c>
       <c r="P51" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -5265,16 +5265,16 @@
         <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F52" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G52" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="H52" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="I52" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5284,16 +5284,16 @@
         <v>137</v>
       </c>
       <c r="M52" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="N52" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="O52" t="s">
         <v>169</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67A534-345C-4C4D-A704-7C9057B9C59D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A46116-3DBA-2A47-BBF6-069683F689D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">datasets!$A$1:$W$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1009,55 +1020,55 @@
     <t>surface_precipitation</t>
   </si>
   <si>
-    <t>MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+    <t>MedBFM4m_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>MedBFM4m_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
   </si>
 </sst>
 </file>
@@ -1995,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2008,8 +2019,8 @@
     <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="109" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="112.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="125.6640625" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
@@ -3837,11 +3848,11 @@
         <v>244</v>
       </c>
       <c r="H29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J29" t="s">
         <v>137</v>
@@ -3906,11 +3917,11 @@
         <v>244</v>
       </c>
       <c r="H30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J30" t="s">
         <v>137</v>
@@ -3975,11 +3986,11 @@
         <v>244</v>
       </c>
       <c r="H31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I31" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J31" t="s">
         <v>137</v>
@@ -4044,11 +4055,11 @@
         <v>244</v>
       </c>
       <c r="H32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J32" t="s">
         <v>137</v>
@@ -4113,11 +4124,11 @@
         <v>244</v>
       </c>
       <c r="H33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J33" t="s">
         <v>137</v>
@@ -4182,11 +4193,11 @@
         <v>238</v>
       </c>
       <c r="H34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J34" t="s">
         <v>137</v>
@@ -4251,11 +4262,11 @@
         <v>244</v>
       </c>
       <c r="H35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I35" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J35" t="s">
         <v>137</v>
@@ -4320,11 +4331,11 @@
         <v>238</v>
       </c>
       <c r="H36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I36" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J36" t="s">
         <v>137</v>
@@ -4389,11 +4400,11 @@
         <v>238</v>
       </c>
       <c r="H37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J37" t="s">
         <v>137</v>
@@ -4458,11 +4469,11 @@
         <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I38" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J38" t="s">
         <v>137</v>
@@ -4527,11 +4538,11 @@
         <v>238</v>
       </c>
       <c r="H39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I39" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J39" t="s">
         <v>137</v>
@@ -4596,11 +4607,11 @@
         <v>244</v>
       </c>
       <c r="H40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I40" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J40" t="s">
         <v>137</v>
@@ -4665,11 +4676,11 @@
         <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I41" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J41" t="s">
         <v>137</v>
@@ -4734,11 +4745,11 @@
         <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I42" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J42" t="s">
         <v>137</v>
@@ -4803,11 +4814,11 @@
         <v>244</v>
       </c>
       <c r="H43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I43" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J43" t="s">
         <v>137</v>
@@ -4872,11 +4883,11 @@
         <v>244</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J44" t="s">
         <v>137</v>
@@ -4941,11 +4952,11 @@
         <v>244</v>
       </c>
       <c r="H45" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="I45" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
       </c>
       <c r="J45" t="s">
         <v>137</v>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A46116-3DBA-2A47-BBF6-069683F689D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE62F5D4-6484-124D-8E6E-EAC2F011E933}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33300" windowHeight="17420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">datasets!$A$1:$W$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="299">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -1069,6 +1058,9 @@
   </si>
   <si>
     <t>MedBFM4m_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>https://about.zenodo.org/static/img/logos/zenodo-gradient-200.png</t>
   </si>
 </sst>
 </file>
@@ -2006,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2747,6 +2739,9 @@
       <c r="O12" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P12" t="s">
+        <v>298</v>
+      </c>
       <c r="Q12" s="12" t="s">
         <v>232</v>
       </c>
@@ -2813,6 +2808,9 @@
       <c r="O13" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P13" t="s">
+        <v>298</v>
+      </c>
       <c r="Q13" s="12" t="s">
         <v>232</v>
       </c>
@@ -2879,6 +2877,9 @@
       <c r="O14" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P14" t="s">
+        <v>298</v>
+      </c>
       <c r="Q14" s="12" t="s">
         <v>232</v>
       </c>
@@ -2945,6 +2946,9 @@
       <c r="O15" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P15" t="s">
+        <v>298</v>
+      </c>
       <c r="Q15" s="12" t="s">
         <v>232</v>
       </c>
@@ -3011,6 +3015,9 @@
       <c r="O16" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P16" t="s">
+        <v>298</v>
+      </c>
       <c r="Q16" s="12" t="s">
         <v>232</v>
       </c>
@@ -3077,6 +3084,9 @@
       <c r="O17" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P17" t="s">
+        <v>298</v>
+      </c>
       <c r="Q17" s="12" t="s">
         <v>232</v>
       </c>
@@ -3143,6 +3153,9 @@
       <c r="O18" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P18" t="s">
+        <v>298</v>
+      </c>
       <c r="Q18" s="12" t="s">
         <v>232</v>
       </c>
@@ -3209,6 +3222,9 @@
       <c r="O19" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P19" t="s">
+        <v>298</v>
+      </c>
       <c r="Q19" s="12" t="s">
         <v>232</v>
       </c>
@@ -3275,6 +3291,9 @@
       <c r="O20" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P20" t="s">
+        <v>298</v>
+      </c>
       <c r="Q20" s="12" t="s">
         <v>232</v>
       </c>
@@ -3341,6 +3360,9 @@
       <c r="O21" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P21" t="s">
+        <v>298</v>
+      </c>
       <c r="Q21" s="12" t="s">
         <v>232</v>
       </c>
@@ -3407,6 +3429,9 @@
       <c r="O22" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P22" t="s">
+        <v>298</v>
+      </c>
       <c r="Q22" s="12" t="s">
         <v>232</v>
       </c>
@@ -3473,6 +3498,9 @@
       <c r="O23" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P23" t="s">
+        <v>298</v>
+      </c>
       <c r="Q23" s="12" t="s">
         <v>232</v>
       </c>
@@ -3539,6 +3567,9 @@
       <c r="O24" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P24" t="s">
+        <v>298</v>
+      </c>
       <c r="Q24" s="12" t="s">
         <v>232</v>
       </c>
@@ -3605,6 +3636,9 @@
       <c r="O25" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P25" t="s">
+        <v>298</v>
+      </c>
       <c r="Q25" s="12" t="s">
         <v>232</v>
       </c>
@@ -3671,6 +3705,9 @@
       <c r="O26" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P26" t="s">
+        <v>298</v>
+      </c>
       <c r="Q26" s="12" t="s">
         <v>232</v>
       </c>
@@ -3737,6 +3774,9 @@
       <c r="O27" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="P27" t="s">
+        <v>298</v>
+      </c>
       <c r="Q27" s="12" t="s">
         <v>232</v>
       </c>
@@ -3802,6 +3842,9 @@
       </c>
       <c r="O28" s="11" t="s">
         <v>139</v>
+      </c>
+      <c r="P28" t="s">
+        <v>298</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>232</v>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolo/Files/sviluppo/R/CNR/IREA/ITINERIS.EVsVRE/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itineris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE62F5D4-6484-124D-8E6E-EAC2F011E933}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4800458-1EAA-4308-8DCD-BAA0009DE8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33300" windowHeight="17420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTER_sites" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">datasets!$A$1:$W$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="475">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -472,15 +483,6 @@
     <t>https://deims.org/sites/default/files/2020-10/elter%20logo_2.png</t>
   </si>
   <si>
-    <t>Profili fluorimetrici Lago Maggiore</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>http://getit.lteritalia.it/observations/sos</t>
-  </si>
-  <si>
     <t>http://www.get-it.it/sensors/getit.lteritalia.it/procedure/noOwnerDeclared/noModelDeclared/noSerialNumberDeclared/1286194C-A5DF-11DF-8ED7-1602DFD72097</t>
   </si>
   <si>
@@ -1061,13 +1063,550 @@
   </si>
   <si>
     <t>https://about.zenodo.org/static/img/logos/zenodo-gradient-200.png</t>
+  </si>
+  <si>
+    <t>path2nc</t>
+  </si>
+  <si>
+    <t>EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>tg</t>
+  </si>
+  <si>
+    <t>tx</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>phyc</t>
+  </si>
+  <si>
+    <t>diatoC</t>
+  </si>
+  <si>
+    <t>nanoC</t>
+  </si>
+  <si>
+    <t>picoC</t>
+  </si>
+  <si>
+    <t>dinoC</t>
+  </si>
+  <si>
+    <t>chl</t>
+  </si>
+  <si>
+    <t>zooc</t>
+  </si>
+  <si>
+    <t>diatoChla</t>
+  </si>
+  <si>
+    <t>nanoChla</t>
+  </si>
+  <si>
+    <t>picoChla</t>
+  </si>
+  <si>
+    <t>dinoChla</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>nppv</t>
+  </si>
+  <si>
+    <t>nh4</t>
+  </si>
+  <si>
+    <t>no3</t>
+  </si>
+  <si>
+    <t>po4</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>initiation_ts</t>
+  </si>
+  <si>
+    <t>initiation_cs</t>
+  </si>
+  <si>
+    <t>initiation_rc</t>
+  </si>
+  <si>
+    <t>termination_ts</t>
+  </si>
+  <si>
+    <t>termination_cs</t>
+  </si>
+  <si>
+    <t>duration_cs</t>
+  </si>
+  <si>
+    <t>termination_rc</t>
+  </si>
+  <si>
+    <t>duration_rc</t>
+  </si>
+  <si>
+    <t>duration_ts</t>
+  </si>
+  <si>
+    <t>mean_chl_ts</t>
+  </si>
+  <si>
+    <t>mean_chl_cs</t>
+  </si>
+  <si>
+    <t>mean_chl_rc</t>
+  </si>
+  <si>
+    <t>int_chl_cs</t>
+  </si>
+  <si>
+    <t>int_chl_ts</t>
+  </si>
+  <si>
+    <t>int_chl_rc</t>
+  </si>
+  <si>
+    <t>max_chl</t>
+  </si>
+  <si>
+    <t>max_time</t>
+  </si>
+  <si>
+    <t>Nich_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>VREFolders</t>
+  </si>
+  <si>
+    <t>MedBFM4m_Chlorophyll_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>MedBFM4m_Oxygen_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>MedBFM4m_Nutrients_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>Corine Land Cover 2018 (CLC2018) is one of the Corine Land Cover (CLC) datasets produced within the frame the Copernicus Land Monitoring Service referring to land cover - land use status of year 2018. The dataset is based on the classification of satellite images produced by the EEA39 national teams and furtherly integrated into a standardized land cover map of Europe. The dataset classifies the land in 44 classes from a 3-level hierarchical nomenclature. Spatially, the minimum mapping unit is 25 hectares and the minimum width is linear elements of 100 metres.</t>
+  </si>
+  <si>
+    <t>The averaged relative humidity dataset is a daily gridded dataset from E-OBS (v29.0e, from 1950 to 2024) derived from the European National Meteorological and Hydrological Services or other holding institutions over Europe.</t>
+  </si>
+  <si>
+    <t>The mean air temperature dataset is a daily gridded dataset from E-OBS (v29.0e, from 1950 to 2024) derived from the European National Meteorological and Hydrological Services or other holding institutions over Europe. The dataset includes the daily average air temperature estimated near the surface, usually at height of 2 meters.</t>
+  </si>
+  <si>
+    <t>The minimum air temperature dataset is a daily gridded dataset from E-OBS (v29.0e, from 1950 to 2024) derived from the European National Meteorological and Hydrological Services or other holding institutions over Europe. The dataset includes the daily minimum air temperature estimated near the surface, usually at height of 2 meters.</t>
+  </si>
+  <si>
+    <t>The maximum air temperature dataset is a daily gridded dataset from E-OBS (v29.0e, from 1950 to 2024) derived from the European National Meteorological and Hydrological Services or other holding institutions over Europe. The dataset includes the daily maximum air temperature estimated near the surface, usually at height of 2 meters.</t>
+  </si>
+  <si>
+    <t>The precipitation dataset is a daily gridded dataset from E-OBS (v29.0e, from 1950 to 2024) derived from the European National Meteorological and Hydrological Services or other holding institutions over Europe. The dataset includes the total daily amount of rain, snow and hail estimated as the height of the equivalent liquid water in a square meter.</t>
+  </si>
+  <si>
+    <t>The dataset includes the estimation of the Net Primary Production (NPP) for Collelongo at medium spatial resolution and quantifies the total amount of carbon dioxide used for plant growth per unit time. The dataset has been provided by the European Union represented by the European Commission - Directorate-General for Defence Industry and Space.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly flowering initiation date (i.e., the transition from vegetative to reproductive growth) calculated by the biomass-based threshold method. This method firstly determines the range as the difference in chl-a concentration between the flowering maximum and preceding minimum and, secondly, identifies the bloom initiation as the first date with the chl-a concentration higher than the minimum chl-a concentration plus 5% of the previous chl-a range.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly flowering initiation date (i.e., the transition from vegetative to reproductive growth) calculated by the cumulative biomass-based threshold method. This method firstly removes any values preceding the bloom slice minimum chl-a concentration and any values greater than 3 times the median of the bloom slice, before calculating the cumulative sum of chl-a and, secondly, identifies the first date that the chl-a concentration was greater than 15% of the total cumulative chl-a concentration.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly flowering initiation date (i.e., the transition from vegetative to reproductive growth) calculated by the cumulative biomass-based threshold method. This method firstly determines the rate of change of the bloom slice and then identifies the first date that the chl-a rate of change was greater than 15% of the median rate of change in chl-a concentration.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly maximum chlorophyll-a concentration.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly amplitude of the maximum chlorophyll-a concentration.</t>
+  </si>
+  <si>
+    <t>The dataset shows the the estimation of the monthly mole concentration of phytoplankton expressed as carbon in sea water calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of diatoms expressed as carbon in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of nanoflagellates expressed as carbon in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of picophytoplankton expressed as carbon in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of dinoflagellates expressed as carbon in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of chlorophyll-a in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>The dataset shows the the estimation of the monthly mole concentration of zooplankton in the sea water calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mass concentration of diatoms expressed as chlorophyll in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mass concentration of nanoflagellates expressed as chlorophyll in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mass concentration of picophytoplankton expressed as chlorophyll in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mass concentration of dinoflagellates expressed as chlorophyll in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of dissolved molecular oxygen in sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly net primary production of biomass expressed as carbon per unit volume in sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of ammonium in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of nitrate in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of phosphate in the sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>This dataset shows the estimation of the 3D monthly mole concentration of silicate in he sea water which has been calculated by the MedBFM4.0 model system. The dataset has been included in the Copernicus Marine analysis and forecast product MEDSEA_ANALYSISFORECAST_BGC_006_014 after automatic and human quality controls.</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8402932/files/OCCCIv6_4KM_PHENOLOGY_CHLOR_A.nc?download=0</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8402931</t>
+  </si>
+  <si>
+    <t>ncFileName</t>
+  </si>
+  <si>
+    <t>ncVarName</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Chlorophyll-a_Lake_Maggiore_Italy</t>
+  </si>
+  <si>
+    <t>ug_l</t>
+  </si>
+  <si>
+    <t>Chlorophyll-a_Lake_Maggiore_Italy.csv</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.23728/b2share.474854262dd5494e93914523b6301adf</t>
+  </si>
+  <si>
+    <t>https://deims.org/dataset/c857c8e2-48aa-4dcd-a7fb-e089bd4c5c4e</t>
+  </si>
+  <si>
+    <t>https://b2share.eudat.eu/records/474854262dd5494e93914523b6301adf</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>1988-2020</t>
+  </si>
+  <si>
+    <t>lake_temperature</t>
+  </si>
+  <si>
+    <t>Water chemistry_Lago Maggiore_Italy</t>
+  </si>
+  <si>
+    <t>Water chemistry_Lago Maggiore_Italy.csv</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.23728/b2share.72a6592454f84610aecf391448ae6bed</t>
+  </si>
+  <si>
+    <t>https://deims.org/dataset/69564188-89de-4879-ad88-4aa97c1d005d</t>
+  </si>
+  <si>
+    <t>https://b2share.eudat.eu/records/fe41f237792b48f19d53db5258c1be96</t>
+  </si>
+  <si>
+    <t>1984-2018</t>
+  </si>
+  <si>
+    <t>2017-2023</t>
+  </si>
+  <si>
+    <t>The seasonally integrated bloom chl-a was calculated using the NumPy (Harris et al., 2020) trapezoidal function as the chl-a concentration integrated between the bloom initiation and termination dates both calculated using the biomass-based threshold method. The seasonal mean chl-a was calculated as the average chl-a between the bloom initiation and termination dates both calculated using the biomass-based threshold method.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly integrated flowering chlorophyll-a calculated by the biomass-based threshold method. The seasonally integrated bloom chl-a was calculated using the NumPy (Harris et al., 2020) trapezoidal function as the chl-a concentration integrated between the bloom initiation and termination dates both calculated using the biomass-based threshold method.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly mean chlorophyll-a concentration calculated by the biomass-based sum method. The seasonally integrated bloom chl-a was calculated using the NumPy (Harris et al., 2020) trapezoidal function as the chl-a concentration integrated between the bloom initiation and termination dates both calculated using the cumulative biomass-based threshold method. The seasonal mean chl-a was calculated as the average chl-a between the bloom initiation and termination dates both calculated using the cumulative biomass-based threshold method.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly integrated flowering chlorophyll-a calculated by the rate of change method. The seasonally integrated bloom chl-a was calculated using the NumPy (Harris et al., 2020) trapezoidal function as the chl-a concentration integrated between the bloom initiation and termination dates both calculated using the rate of change method.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly mean chlorophyll-a concentration calculated by the biomass-based threshold method. The seasonally integrated bloom chl-a was calculated using the NumPy (Harris et al., 2020) trapezoidal function as the chl-a concentration integrated between the bloom initiation and termination dates both calculated using the rate of change method. The seasonal mean chl-a was calculated as the average chl-a between the bloom initiation and termination dates both calculated using the rate of change method.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly flowering termination date (i.e., the end of the reproductive growth phase) calculated by the biomass-based threshold method. The bloom termination date for each bloom slice was similarly calculated as the first date after the bloom maximum, or the last peak in the event of multi-modal blooms, according to the following the first date that the chl-a concentration was less than the minimum chl-a concentration plus 5% of the chl-a range.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly flowering duration (i.e., the duration of the reproductive growth phase) calculated by the biomass-based threshold method. The bloom duration was calculated as the number of days between the bloom initiation and termination dates both calculated using the biomass-based threshold method.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly flowering termination date (i.e., the end of the reproductive growth phase) calculated by the cumulative biomass-based threshold method. The bloom termination date for each bloom slice was similarly calculated as the first date after the bloom maximum, or the last peak in the event of multi-modal blooms, according to the following the first date that the chl-a concentration was less than 15% of the total cumulative chl-a concentration.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly flowering duration (i.e., the duration of the reproductive growth phase) calculated by the cumulative biomass-based threshold method. The bloom duration was calculated as the number of days between the bloom initiation and termination dates both calculated using the cumulative biomass-based threshold method.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly flowering termination date (i.e., the end of the reproductive growth phase) calculated by the median rate of change. The bloom termination date for each bloom slice was similarly calculated as the first date after the bloom maximum, or the last peak in the event of multi-modal blooms, according to the following the first date that chl-a rate of change was less than 15% of the median rate of change in chl-a concentration.</t>
+  </si>
+  <si>
+    <t>The dataset shows the estimated yearly flowering duration (i.e., the duration of the reproductive growth phase) calculated by the median rate of change. The bloom duration was calculated as the number of days between the bloom initiation and termination dates both calculated using the rate of change method.</t>
+  </si>
+  <si>
+    <t>The dataset provides the difference between the maximum and minimum Plant Phenology Index values reached during the season. The Plant Phenology Index is a physically based vegetation index for improved monitoring of plant phenology based on Sentinel 2 images.</t>
+  </si>
+  <si>
+    <t>The dataset provides the date when the vegetation growing season ends in the time profile of the Plant Phenology Index. The end-of-season occurs, by definition, when the Plant Phenology Index value reaches 15% of the season amplitude during the green-down period. The Plant Phenology Index is a physically based vegetation index for improved monitoring of plant phenology based on Sentinel 2 images.</t>
+  </si>
+  <si>
+    <t>The dataset provides the number of days between the start and end dates of the vegetation growing season in the time profile of the Plant Phenology Index. The Plant Phenology Index is a physically based vegetation index for improved monitoring of plant phenology based on Sentinel 2 images.</t>
+  </si>
+  <si>
+    <t>The dataset provides the rate of change in the values of the Plant Phenology Index at the day when the vegetation growing season starts. The Plant Phenology Index is a physically based vegetation index for improved monitoring of plant phenology based on Sentinel 2 images.</t>
+  </si>
+  <si>
+    <t>The dataset provides the date in the vegetation growing season when the maximum Plant Phenology Index value is reached. The Plant Phenology Index is a physically based vegetation index for improved monitoring of plant phenology based on Sentinel 2 images.</t>
+  </si>
+  <si>
+    <t>The dataset provides the rate of change in the values of the Plant Phenology Index at the day when the vegetation growing season ends. The Plant Phenology Index is a physically based vegetation index for improved monitoring of plant phenology based on Sentinel 2 images.</t>
+  </si>
+  <si>
+    <t>The dataset provides the date when the vegetation growing season starts in the time profile of the Plant Phenology Index. The start-of-season occurs, by definition, when the Plant Phenology Index value reaches 25% of the season amplitude during the green-up period.  The Plant Phenology Index is a physically based vegetation index for improved monitoring of plant phenology based on Sentinel 2 images.</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/E1_Chl_2022.dat</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/PR_PF_6903783.csv</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Chlorophyll-a_Lake_Maggiore_Italy.csv</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Water chemistry_Lago Maggiore_Italy.csv</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Chlorophyll_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Oxygen_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Nutrients_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,6 +1669,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1167,7 +1712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1188,13 +1733,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1210,7 +1757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1536,15 +2083,15 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="33.33203125" customWidth="1"/>
     <col min="6" max="6" width="48.6640625" customWidth="1"/>
     <col min="7" max="7" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1567,7 +2114,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1584,14 +2131,14 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1607,22 +2154,22 @@
       <c r="E3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>35</v>
@@ -1631,11 +2178,11 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>188</v>
+      <c r="F4" t="s">
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1649,16 +2196,16 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1681,7 +2228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" thickTop="1">
+    <row r="2" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1704,7 +2251,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1727,7 +2274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1750,7 +2297,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1770,7 +2317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1793,7 +2340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1816,7 +2363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1839,7 +2386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18">
+    <row r="9" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1862,7 +2409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1885,7 +2432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1905,7 +2452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1928,7 +2475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -1951,7 +2498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18">
+    <row r="14" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1996,42 +2543,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="109" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="112.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="109" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1"/>
+    <col min="8" max="8" width="70.109375" customWidth="1"/>
+    <col min="9" max="9" width="112.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="125.6640625" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="156.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="162.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="170.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="156.44140625" customWidth="1"/>
+    <col min="14" max="14" width="162.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="170.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="7.109375" customWidth="1"/>
+    <col min="23" max="23" width="15.109375" customWidth="1"/>
+    <col min="24" max="24" width="164" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="76.6640625" customWidth="1"/>
+    <col min="26" max="26" width="110.33203125" customWidth="1"/>
+    <col min="27" max="27" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
@@ -2043,13 +2594,13 @@
         <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
         <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
         <v>87</v>
@@ -2064,13 +2615,13 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O1" t="s">
         <v>95</v>
@@ -2079,28 +2630,43 @@
         <v>98</v>
       </c>
       <c r="Q1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T1" t="s">
         <v>213</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>214</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>215</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>216</v>
       </c>
-      <c r="U1" t="s">
-        <v>217</v>
-      </c>
-      <c r="V1" t="s">
-        <v>218</v>
-      </c>
-      <c r="W1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2114,18 +2680,17 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="10"/>
       <c r="H2" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="8" t="str">
-        <f>+_xlfn.CONCAT("~/workspace/VREFolders/ITINERIS_EV/DATI/",H2)</f>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/E1_Chl_2022.dat</v>
+      <c r="I2" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="J2" t="s">
         <v>89</v>
@@ -2136,8 +2701,11 @@
       <c r="P2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2151,18 +2719,17 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="10"/>
       <c r="H3" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I52" si="0">+_xlfn.CONCAT("~/workspace/VREFolders/ITINERIS_EV/DATI/",H3)</f>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/PR_PF_6903783.csv</v>
+      <c r="I3" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="J3" t="s">
         <v>99</v>
@@ -2177,8 +2744,11 @@
       <c r="P3" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2192,24 +2762,34 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4" t="s">
+        <v>382</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>383</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="I4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>105</v>
+      <c r="M4" t="s">
+        <v>384</v>
+      </c>
+      <c r="N4" t="s">
+        <v>385</v>
       </c>
       <c r="O4" t="s">
         <v>96</v>
@@ -2217,13 +2797,37 @@
       <c r="P4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="Q4" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -2232,67 +2836,81 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>115</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="J5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" t="s">
         <v>137</v>
       </c>
-      <c r="K5" t="s">
-        <v>140</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O5" t="s">
         <v>166</v>
       </c>
-      <c r="N5" t="s">
-        <v>211</v>
-      </c>
-      <c r="O5" t="s">
-        <v>169</v>
-      </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R5">
         <v>0.1</v>
       </c>
       <c r="S5" t="s">
+        <v>218</v>
+      </c>
+      <c r="T5" t="s">
+        <v>219</v>
+      </c>
+      <c r="U5" t="s">
+        <v>222</v>
+      </c>
+      <c r="V5" t="s">
+        <v>220</v>
+      </c>
+      <c r="W5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" t="s">
-        <v>222</v>
-      </c>
-      <c r="U5" t="s">
-        <v>225</v>
-      </c>
-      <c r="V5" t="s">
-        <v>223</v>
-      </c>
-      <c r="W5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -2301,67 +2919,81 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>114</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="J6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" t="s">
         <v>166</v>
       </c>
-      <c r="N6" t="s">
-        <v>211</v>
-      </c>
-      <c r="O6" t="s">
-        <v>169</v>
-      </c>
       <c r="P6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R6">
         <v>0.1</v>
       </c>
       <c r="S6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T6" t="s">
+        <v>219</v>
+      </c>
+      <c r="U6" t="s">
+        <v>222</v>
+      </c>
+      <c r="V6" t="s">
+        <v>220</v>
+      </c>
+      <c r="W6" t="s">
         <v>221</v>
       </c>
-      <c r="T6" t="s">
-        <v>222</v>
-      </c>
-      <c r="U6" t="s">
-        <v>225</v>
-      </c>
-      <c r="V6" t="s">
-        <v>223</v>
-      </c>
-      <c r="W6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -2370,67 +3002,81 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>113</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O7" t="s">
         <v>166</v>
       </c>
-      <c r="N7" t="s">
-        <v>211</v>
-      </c>
-      <c r="O7" t="s">
-        <v>169</v>
-      </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R7">
         <v>0.1</v>
       </c>
       <c r="S7" t="s">
+        <v>218</v>
+      </c>
+      <c r="T7" t="s">
+        <v>219</v>
+      </c>
+      <c r="U7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V7" t="s">
+        <v>220</v>
+      </c>
+      <c r="W7" t="s">
         <v>221</v>
       </c>
-      <c r="T7" t="s">
-        <v>222</v>
-      </c>
-      <c r="U7" t="s">
-        <v>225</v>
-      </c>
-      <c r="V7" t="s">
-        <v>223</v>
-      </c>
-      <c r="W7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -2439,67 +3085,81 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>112</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O8" t="s">
         <v>166</v>
       </c>
-      <c r="N8" t="s">
-        <v>211</v>
-      </c>
-      <c r="O8" t="s">
-        <v>169</v>
-      </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R8">
         <v>0.1</v>
       </c>
       <c r="S8" t="s">
+        <v>218</v>
+      </c>
+      <c r="T8" t="s">
+        <v>219</v>
+      </c>
+      <c r="U8" t="s">
+        <v>222</v>
+      </c>
+      <c r="V8" t="s">
+        <v>220</v>
+      </c>
+      <c r="W8" t="s">
         <v>221</v>
       </c>
-      <c r="T8" t="s">
-        <v>222</v>
-      </c>
-      <c r="U8" t="s">
-        <v>225</v>
-      </c>
-      <c r="V8" t="s">
-        <v>223</v>
-      </c>
-      <c r="W8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -2508,133 +3168,152 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      <c r="I9" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" t="s">
+        <v>208</v>
+      </c>
+      <c r="O9" t="s">
         <v>166</v>
       </c>
-      <c r="N9" t="s">
-        <v>211</v>
-      </c>
-      <c r="O9" t="s">
-        <v>169</v>
-      </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R9">
         <v>0.1</v>
       </c>
       <c r="S9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T9" t="s">
+        <v>219</v>
+      </c>
+      <c r="U9" t="s">
+        <v>222</v>
+      </c>
+      <c r="V9" t="s">
+        <v>220</v>
+      </c>
+      <c r="W9" t="s">
         <v>221</v>
       </c>
-      <c r="T9" t="s">
-        <v>222</v>
-      </c>
-      <c r="U9" t="s">
-        <v>225</v>
-      </c>
-      <c r="V9" t="s">
-        <v>223</v>
-      </c>
-      <c r="W9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</v>
+        <v>110</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R10">
         <v>25</v>
       </c>
       <c r="S10" t="s">
+        <v>223</v>
+      </c>
+      <c r="T10" t="s">
+        <v>224</v>
+      </c>
+      <c r="U10" t="s">
+        <v>225</v>
+      </c>
+      <c r="V10" t="s">
+        <v>220</v>
+      </c>
+      <c r="W10" t="s">
         <v>226</v>
       </c>
-      <c r="T10" t="s">
-        <v>227</v>
-      </c>
-      <c r="U10" t="s">
-        <v>228</v>
-      </c>
-      <c r="V10" t="s">
-        <v>223</v>
-      </c>
-      <c r="W10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -2643,38 +3322,37 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>249</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="R11">
         <v>196</v>
@@ -2683,24 +3361,30 @@
         <v>76</v>
       </c>
       <c r="T11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="W11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>226</v>
+      </c>
+      <c r="X11" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -2709,67 +3393,81 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>117</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="K12" t="s">
-        <v>164</v>
+        <v>375</v>
       </c>
       <c r="M12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s">
-        <v>240</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>139</v>
+        <v>376</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S12" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="S12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X12" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -2778,67 +3476,81 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>118</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s">
-        <v>240</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P13" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R13">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S13" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="S13" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X13" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
@@ -2847,205 +3559,247 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>119</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s">
-        <v>240</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P14" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R14">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S14" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="S14" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X14" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" t="s">
         <v>237</v>
       </c>
-      <c r="H15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
-      </c>
-      <c r="J15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" t="s">
-        <v>165</v>
-      </c>
-      <c r="N15" t="s">
-        <v>240</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>139</v>
+      <c r="O15" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P15" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R15">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S15" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="S15" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X15" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>121</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s">
-        <v>240</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P16" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R16">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S16" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="S16" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X16" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -3054,67 +3808,81 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>122</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N17" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P17" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R17">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S17" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="S17" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X17" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -3123,67 +3891,81 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>123</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N18" t="s">
-        <v>240</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P18" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S18" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="S18" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X18" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -3192,205 +3974,248 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>124</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s">
-        <v>240</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P19" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R19">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S19" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="S19" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X19" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" t="s">
         <v>237</v>
       </c>
-      <c r="H20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
-      </c>
-      <c r="J20" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" t="s">
-        <v>164</v>
-      </c>
-      <c r="M20" t="s">
-        <v>165</v>
-      </c>
-      <c r="N20" t="s">
-        <v>240</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>139</v>
+      <c r="O20" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P20" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R20">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S20" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U20" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W20" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="S20" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X20" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="14"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>126</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N21" t="s">
-        <v>240</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P21" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R21">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S21" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V21" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="S21" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X21" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
@@ -3399,67 +4224,81 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>127</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N22" t="s">
-        <v>240</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P22" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R22">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S22" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U22" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W22" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="S22" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
@@ -3468,67 +4307,81 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>128</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>434</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N23" t="s">
-        <v>240</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P23" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R23">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S23" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="S23" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -3537,343 +4390,413 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>129</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="J24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N24" t="s">
-        <v>240</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P24" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R24">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S24" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V24" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="S24" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y24" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25" t="s">
         <v>237</v>
       </c>
-      <c r="H25" t="s">
-        <v>133</v>
-      </c>
-      <c r="I25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
-      </c>
-      <c r="J25" t="s">
-        <v>137</v>
-      </c>
-      <c r="K25" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" t="s">
-        <v>165</v>
-      </c>
-      <c r="N25" t="s">
-        <v>240</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>139</v>
+      <c r="O25" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P25" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R25">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S25" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V25" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="S25" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X25" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y25" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="J26" t="s">
         <v>134</v>
       </c>
-      <c r="I26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
-      </c>
-      <c r="J26" t="s">
-        <v>137</v>
-      </c>
       <c r="K26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P26" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R26">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S26" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U26" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V26" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W26" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="S26" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X26" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" t="s">
         <v>161</v>
       </c>
-      <c r="G27" t="s">
-        <v>238</v>
-      </c>
-      <c r="H27" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
-      </c>
-      <c r="J27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K27" t="s">
-        <v>164</v>
-      </c>
       <c r="M27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="P27" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R27">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S27" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W27" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="S27" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X27" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M28" t="s">
         <v>162</v>
       </c>
-      <c r="G28" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
-      </c>
-      <c r="J28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K28" t="s">
-        <v>164</v>
-      </c>
-      <c r="M28" t="s">
-        <v>165</v>
-      </c>
-      <c r="N28" t="s">
-        <v>240</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="P28" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="R28">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S28" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V28" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W28" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="S28" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X28" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y28" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -3882,67 +4805,81 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H29" t="s">
-        <v>281</v>
-      </c>
-      <c r="I29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>278</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P29" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R29">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="S29" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W29" t="s">
         <v>221</v>
       </c>
-      <c r="T29" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U29" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V29" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y29" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -3951,67 +4888,81 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
-      </c>
-      <c r="I30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>279</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="J30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R30">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S30" s="12" t="s">
+      <c r="S30" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W30" t="s">
         <v>221</v>
       </c>
-      <c r="T30" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y30" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -4020,67 +4971,81 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H31" t="s">
-        <v>283</v>
-      </c>
-      <c r="I31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>280</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R31">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S31" s="12" t="s">
+      <c r="S31" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W31" t="s">
         <v>221</v>
       </c>
-      <c r="T31" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V31" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y31" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -4089,67 +5054,81 @@
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H32" t="s">
-        <v>284</v>
-      </c>
-      <c r="I32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>281</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P32" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R32">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S32" s="12" t="s">
+      <c r="S32" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W32" t="s">
         <v>221</v>
       </c>
-      <c r="T32" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U32" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V32" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y32" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z32" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -4158,136 +5137,164 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H33" t="s">
-        <v>285</v>
-      </c>
-      <c r="I33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>282</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="J33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K33" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N33" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q33" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R33">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S33" s="12" t="s">
+      <c r="S33" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W33" t="s">
         <v>221</v>
       </c>
-      <c r="T33" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H34" t="s">
-        <v>286</v>
-      </c>
-      <c r="I34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>283</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="J34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R34">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S34" s="12" t="s">
+      <c r="S34" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W34" t="s">
         <v>221</v>
       </c>
-      <c r="T34" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U34" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V34" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y34" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA34" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -4296,412 +5303,496 @@
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H35" t="s">
-        <v>287</v>
-      </c>
-      <c r="I35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>284</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="J35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q35" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R35">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S35" s="12" t="s">
+      <c r="S35" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W35" t="s">
         <v>221</v>
       </c>
-      <c r="T35" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U35" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V35" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W35" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y35" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z35" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>288</v>
-      </c>
-      <c r="I36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>285</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="J36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S36" s="12" t="s">
+      <c r="S36" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W36" t="s">
         <v>221</v>
       </c>
-      <c r="T36" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U36" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V36" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y36" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA36" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>289</v>
-      </c>
-      <c r="I37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>286</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="J37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M37" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O37" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R37">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S37" s="12" t="s">
+      <c r="S37" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W37" t="s">
         <v>221</v>
       </c>
-      <c r="T37" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U37" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V37" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z37" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H38" t="s">
-        <v>290</v>
-      </c>
-      <c r="I38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>287</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R38">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="S38" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V38" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W38" t="s">
         <v>221</v>
       </c>
-      <c r="T38" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U38" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V38" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W38" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z38" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA38" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>291</v>
-      </c>
-      <c r="I39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>288</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="J39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O39" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P39" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q39" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R39">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S39" s="12" t="s">
+      <c r="S39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W39" t="s">
         <v>221</v>
       </c>
-      <c r="T39" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U39" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V39" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H40" t="s">
-        <v>292</v>
-      </c>
-      <c r="I40" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>289</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q40" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R40">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S40" s="12" t="s">
+      <c r="S40" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W40" t="s">
         <v>221</v>
       </c>
-      <c r="T40" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U40" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y40" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z40" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -4710,67 +5801,81 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" t="s">
+        <v>290</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="J41" t="s">
+        <v>134</v>
+      </c>
+      <c r="K41" t="s">
+        <v>246</v>
+      </c>
+      <c r="M41" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" t="s">
+        <v>207</v>
+      </c>
+      <c r="O41" t="s">
+        <v>166</v>
+      </c>
+      <c r="P41" t="s">
         <v>247</v>
       </c>
-      <c r="H41" t="s">
-        <v>293</v>
-      </c>
-      <c r="I41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
-      </c>
-      <c r="J41" t="s">
-        <v>137</v>
-      </c>
-      <c r="K41" t="s">
-        <v>249</v>
-      </c>
-      <c r="M41" t="s">
-        <v>209</v>
-      </c>
-      <c r="N41" t="s">
-        <v>210</v>
-      </c>
-      <c r="O41" t="s">
-        <v>169</v>
-      </c>
-      <c r="P41" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q41" s="12" t="s">
-        <v>245</v>
+      <c r="Q41" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R41">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S41" s="12" t="s">
+      <c r="S41" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W41" t="s">
         <v>221</v>
       </c>
-      <c r="T41" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U41" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V41" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z41" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -4779,67 +5884,81 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>294</v>
-      </c>
-      <c r="I42" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>291</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q42" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R42">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S42" s="12" t="s">
+      <c r="S42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W42" t="s">
         <v>221</v>
       </c>
-      <c r="T42" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U42" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V42" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y42" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z42" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA42" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -4848,67 +5967,81 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
-        <v>295</v>
-      </c>
-      <c r="I43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>292</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K43" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R43">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S43" s="12" t="s">
+      <c r="S43" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W43" t="s">
         <v>221</v>
       </c>
-      <c r="T43" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V43" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y43" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z43" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -4917,67 +6050,81 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G44" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H44" t="s">
-        <v>296</v>
-      </c>
-      <c r="I44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>293</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="J44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N44" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O44" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R44">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S44" s="12" t="s">
+      <c r="S44" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W44" t="s">
         <v>221</v>
       </c>
-      <c r="T44" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U44" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V44" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y44" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z44" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA44" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -4986,67 +6133,81 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H45" t="s">
-        <v>297</v>
-      </c>
-      <c r="I45" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/MedBFM4m_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</v>
+        <v>294</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="J45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K45" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N45" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="R45">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S45" s="12" t="s">
+      <c r="S45" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W45" t="s">
         <v>221</v>
       </c>
-      <c r="T45" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U45" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="V45" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="W45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y45" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z45" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA45" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
@@ -5055,43 +6216,69 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F46" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H46" t="s">
-        <v>255</v>
-      </c>
-      <c r="I46" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>252</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>457</v>
       </c>
       <c r="J46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>247</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="R46" s="11">
+        <v>10</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T46" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U46" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="V46" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W46" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X46" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -5100,43 +6287,69 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F47" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" t="s">
         <v>262</v>
       </c>
-      <c r="G47" t="s">
-        <v>265</v>
-      </c>
       <c r="H47" t="s">
-        <v>256</v>
-      </c>
-      <c r="I47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>253</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="J47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M47" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P47" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+        <v>247</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="R47" s="11">
+        <v>10</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X47" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
         <v>67</v>
@@ -5145,43 +6358,69 @@
         <v>48</v>
       </c>
       <c r="E48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" t="s">
         <v>254</v>
       </c>
-      <c r="F48" t="s">
-        <v>264</v>
-      </c>
-      <c r="G48" t="s">
-        <v>236</v>
-      </c>
-      <c r="H48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+      <c r="I48" s="8" t="s">
+        <v>459</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P48" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>247</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="R48" s="11">
+        <v>10</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W48" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X48" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -5190,40 +6429,66 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H49" t="s">
-        <v>258</v>
-      </c>
-      <c r="I49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>255</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="J49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N49" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>247</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="R49" s="11">
+        <v>10</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="V49" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W49" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X49" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -5232,43 +6497,69 @@
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F50" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G50" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H50" t="s">
-        <v>259</v>
-      </c>
-      <c r="I50" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>256</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="J50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M50" t="s">
+        <v>268</v>
+      </c>
+      <c r="N50" t="s">
         <v>271</v>
       </c>
-      <c r="N50" t="s">
-        <v>274</v>
-      </c>
       <c r="O50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>247</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="R50" s="11">
+        <v>10</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U50" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="V50" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W50" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X50" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>67</v>
@@ -5277,40 +6568,66 @@
         <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F51" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
-      </c>
-      <c r="I51" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>257</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="J51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O51" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>247</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="R51" s="11">
+        <v>10</v>
+      </c>
+      <c r="S51" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U51" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="V51" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W51" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X51" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
@@ -5319,35 +6636,129 @@
         <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F52" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H52" t="s">
-        <v>261</v>
-      </c>
-      <c r="I52" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>~/workspace/VREFolders/ITINERIS_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</v>
+        <v>258</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="J52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N52" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="R52" s="11">
+        <v>10</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="X52" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>388</v>
+      </c>
+      <c r="F53" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" t="s">
+        <v>390</v>
+      </c>
+      <c r="I53" t="s">
+        <v>465</v>
+      </c>
+      <c r="J53" t="s">
+        <v>89</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="s">
+        <v>392</v>
+      </c>
+      <c r="N53" t="s">
+        <v>393</v>
+      </c>
+      <c r="O53" t="s">
+        <v>96</v>
+      </c>
+      <c r="P53" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>386</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="T53" t="s">
+        <v>243</v>
+      </c>
+      <c r="U53" t="s">
+        <v>394</v>
+      </c>
+      <c r="V53" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W53" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5357,8 +6768,9 @@
     <hyperlink ref="P3" r:id="rId2" xr:uid="{2F590B1D-8210-384E-8018-FB4572E03C72}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{FE14985B-235F-4F7E-92C5-8557ABF5B36A}"/>
     <hyperlink ref="M5" r:id="rId4" xr:uid="{613A3A06-9B48-3547-82B1-7D5CBFE99FF7}"/>
+    <hyperlink ref="K53" r:id="rId5" xr:uid="{0FEED171-CBF8-4857-BDC9-E85CBE3F222B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itineris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4800458-1EAA-4308-8DCD-BAA0009DE8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E68F185-CF66-40B4-BF1A-E2F57A0E3C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1086,9 +1086,6 @@
     <t>tg</t>
   </si>
   <si>
-    <t>tx</t>
-  </si>
-  <si>
     <t>rr</t>
   </si>
   <si>
@@ -1185,12 +1182,6 @@
     <t>mean_chl_rc</t>
   </si>
   <si>
-    <t>int_chl_cs</t>
-  </si>
-  <si>
-    <t>int_chl_ts</t>
-  </si>
-  <si>
     <t>int_chl_rc</t>
   </si>
   <si>
@@ -1419,187 +1410,196 @@
     <t>The dataset provides the date when the vegetation growing season starts in the time profile of the Plant Phenology Index. The start-of-season occurs, by definition, when the Plant Phenology Index value reaches 25% of the season amplitude during the green-up period.  The Plant Phenology Index is a physically based vegetation index for improved monitoring of plant phenology based on Sentinel 2 images.</t>
   </si>
   <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/E1_Chl_2022.dat</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/PR_PF_6903783.csv</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Chlorophyll-a_Lake_Maggiore_Italy.csv</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Water chemistry_Lago Maggiore_Italy.csv</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Chlorophyll_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Oxygen_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
-  </si>
-  <si>
-    <t>~/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Nutrients_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>ini_chl_ts</t>
+  </si>
+  <si>
+    <t>init_chl_cs</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Chlorophyll_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Oxygen_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Nutrients_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/E1_Chl_2022.dat</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/PR_PF_6903783.csv</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Chlorophyll-a_Lake_Maggiore_Italy.csv</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tn_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tx_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_rr_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_hu_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLC2018_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.geojson</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EEA_NPP_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_initiationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_terminationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_durationts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_intchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_meanchlts_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_initiationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_terminationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_durationcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_intchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_meanchlcs_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_initiationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_terminationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_durationrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_intchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_meanchlrc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_maxchl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_maxtime_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_phyc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_diatoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nanoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_picoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_dinoC_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_chl_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_zooc_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_diatoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nanoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_picoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_dinoChla_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_o2_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nppv_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_nh4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_no3_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_po4_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_si_6869436a-80f4-4c6d-954b-a730b348d7ce.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_AMPL_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_EOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_LENGTH_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_LSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_MAXD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_RSLOPE_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/CLM_SOSD_9b1d144a-dc37-4b0e-8cda-1dda1d7667da.tif</t>
+  </si>
+  <si>
+    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Water chemistry_Lago Maggiore_Italy.csv</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1738,6 +1738,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2543,10 +2545,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,7 +2579,7 @@
     <col min="24" max="24" width="164" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="76.6640625" customWidth="1"/>
     <col min="26" max="26" width="110.33203125" customWidth="1"/>
-    <col min="27" max="27" width="15.109375" customWidth="1"/>
+    <col min="27" max="27" width="15.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -2654,16 +2656,16 @@
         <v>10</v>
       </c>
       <c r="Y1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Z1" t="s">
         <v>296</v>
       </c>
       <c r="AA1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AB1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -2690,7 +2692,7 @@
         <v>88</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="J2" t="s">
         <v>89</v>
@@ -2703,7 +2705,7 @@
       </c>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="AA2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2729,7 +2731,7 @@
         <v>91</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J3" t="s">
         <v>99</v>
@@ -2746,7 +2748,7 @@
       </c>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="AA3"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2765,31 +2767,31 @@
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="J4" t="s">
         <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O4" t="s">
         <v>96</v>
@@ -2798,7 +2800,7 @@
         <v>101</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>224</v>
@@ -2810,7 +2812,7 @@
         <v>243</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="V4" s="11" t="s">
         <v>220</v>
@@ -2820,7 +2822,7 @@
       </c>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="AA4"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2848,7 +2850,7 @@
         <v>115</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="J5" t="s">
         <v>134</v>
@@ -2890,15 +2892,15 @@
         <v>221</v>
       </c>
       <c r="X5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Y5" s="8" t="s">
         <v>297</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA5" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA5" t="s">
         <v>302</v>
       </c>
       <c r="AB5">
@@ -2931,7 +2933,7 @@
         <v>114</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="J6" t="s">
         <v>134</v>
@@ -2973,16 +2975,16 @@
         <v>221</v>
       </c>
       <c r="X6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Y6" s="8" t="s">
         <v>298</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>323</v>
+        <v>415</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>322</v>
       </c>
       <c r="AB6">
         <v>1</v>
@@ -3014,7 +3016,7 @@
         <v>113</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="J7" t="s">
         <v>134</v>
@@ -3056,16 +3058,16 @@
         <v>221</v>
       </c>
       <c r="X7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>299</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>303</v>
+        <v>416</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>411</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -3097,7 +3099,7 @@
         <v>112</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="J8" t="s">
         <v>134</v>
@@ -3139,16 +3141,16 @@
         <v>221</v>
       </c>
       <c r="X8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Y8" s="8" t="s">
         <v>300</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>304</v>
+        <v>417</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -3180,7 +3182,7 @@
         <v>111</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="J9" t="s">
         <v>134</v>
@@ -3222,16 +3224,16 @@
         <v>221</v>
       </c>
       <c r="X9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>301</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>305</v>
+        <v>418</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="AB9">
         <v>1</v>
@@ -3263,7 +3265,7 @@
         <v>110</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="J10" t="s">
         <v>135</v>
@@ -3302,11 +3304,11 @@
         <v>226</v>
       </c>
       <c r="X10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="AA10"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -3334,7 +3336,7 @@
         <v>249</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="J11" t="s">
         <v>134</v>
@@ -3373,11 +3375,11 @@
         <v>226</v>
       </c>
       <c r="X11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="AA11"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -3405,19 +3407,19 @@
         <v>117</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="J12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M12" t="s">
         <v>162</v>
       </c>
       <c r="N12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O12" s="10" t="s">
         <v>136</v>
@@ -3447,16 +3449,16 @@
         <v>226</v>
       </c>
       <c r="X12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>324</v>
+        <v>419</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="AB12">
         <v>1</v>
@@ -3488,7 +3490,7 @@
         <v>118</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="J13" t="s">
         <v>134</v>
@@ -3530,16 +3532,16 @@
         <v>226</v>
       </c>
       <c r="X13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>327</v>
+        <v>419</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -3571,7 +3573,7 @@
         <v>119</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="J14" t="s">
         <v>134</v>
@@ -3613,16 +3615,16 @@
         <v>226</v>
       </c>
       <c r="X14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>332</v>
+        <v>419</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="AB14">
         <v>1</v>
@@ -3654,7 +3656,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="J15" t="s">
         <v>134</v>
@@ -3696,16 +3698,16 @@
         <v>226</v>
       </c>
       <c r="X15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>337</v>
+        <v>419</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>412</v>
       </c>
       <c r="AB15">
         <v>1</v>
@@ -3737,7 +3739,7 @@
         <v>121</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="J16" t="s">
         <v>134</v>
@@ -3779,22 +3781,22 @@
         <v>226</v>
       </c>
       <c r="X16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>333</v>
+        <v>419</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>332</v>
       </c>
       <c r="AB16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>122</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="J17" t="s">
         <v>134</v>
@@ -3862,22 +3864,22 @@
         <v>226</v>
       </c>
       <c r="X17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z17" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA17" s="8" t="s">
-        <v>325</v>
+        <v>419</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>324</v>
       </c>
       <c r="AB17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3903,7 +3905,7 @@
         <v>123</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="J18" t="s">
         <v>134</v>
@@ -3945,22 +3947,22 @@
         <v>226</v>
       </c>
       <c r="X18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA18" s="8" t="s">
-        <v>328</v>
+        <v>419</v>
+      </c>
+      <c r="AA18" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="AB18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3986,7 +3988,7 @@
         <v>124</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J19" t="s">
         <v>134</v>
@@ -4028,22 +4030,22 @@
         <v>226</v>
       </c>
       <c r="X19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>329</v>
+        <v>419</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="AB19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>125</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="J20" t="s">
         <v>134</v>
@@ -4111,23 +4113,22 @@
         <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA20" s="8" t="s">
-        <v>336</v>
+        <v>419</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>413</v>
       </c>
       <c r="AB20">
         <v>1</v>
       </c>
-      <c r="AC20" s="14"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>126</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="J21" t="s">
         <v>134</v>
@@ -4195,22 +4196,22 @@
         <v>226</v>
       </c>
       <c r="X21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA21" s="8" t="s">
-        <v>334</v>
+        <v>419</v>
+      </c>
+      <c r="AA21" s="15" t="s">
+        <v>333</v>
       </c>
       <c r="AB21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>127</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="J22" t="s">
         <v>134</v>
@@ -4278,22 +4279,22 @@
         <v>226</v>
       </c>
       <c r="X22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA22" s="8" t="s">
-        <v>326</v>
+        <v>419</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="AB22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>128</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="J23" t="s">
         <v>134</v>
@@ -4361,22 +4362,22 @@
         <v>226</v>
       </c>
       <c r="X23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA23" s="8" t="s">
-        <v>330</v>
+        <v>419</v>
+      </c>
+      <c r="AA23" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="AB23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>129</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="J24" t="s">
         <v>134</v>
@@ -4444,22 +4445,22 @@
         <v>226</v>
       </c>
       <c r="X24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Y24" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA24" s="8" t="s">
-        <v>331</v>
+        <v>419</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>330</v>
       </c>
       <c r="AB24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>130</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="J25" t="s">
         <v>134</v>
@@ -4527,22 +4528,22 @@
         <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA25" s="8" t="s">
-        <v>338</v>
+        <v>419</v>
+      </c>
+      <c r="AA25" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="AB25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>131</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="J26" t="s">
         <v>134</v>
@@ -4610,22 +4611,22 @@
         <v>226</v>
       </c>
       <c r="X26" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA26" s="8" t="s">
-        <v>335</v>
+        <v>419</v>
+      </c>
+      <c r="AA26" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="AB26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>132</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="J27" t="s">
         <v>134</v>
@@ -4693,22 +4694,22 @@
         <v>226</v>
       </c>
       <c r="X27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA27" s="8" t="s">
-        <v>339</v>
+        <v>419</v>
+      </c>
+      <c r="AA27" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="AB27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>133</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="J28" t="s">
         <v>134</v>
@@ -4776,22 +4777,22 @@
         <v>226</v>
       </c>
       <c r="X28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA28" s="8" t="s">
-        <v>340</v>
+        <v>419</v>
+      </c>
+      <c r="AA28" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="AB28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>278</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="J29" t="s">
         <v>134</v>
@@ -4859,22 +4860,22 @@
         <v>221</v>
       </c>
       <c r="X29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z29" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA29" s="8" t="s">
-        <v>306</v>
+        <v>420</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="AB29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>279</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="J30" t="s">
         <v>134</v>
@@ -4942,22 +4943,22 @@
         <v>221</v>
       </c>
       <c r="X30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Y30" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA30" s="8" t="s">
-        <v>307</v>
+        <v>420</v>
+      </c>
+      <c r="AA30" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="AB30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>280</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="J31" t="s">
         <v>134</v>
@@ -5025,22 +5026,22 @@
         <v>221</v>
       </c>
       <c r="X31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z31" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA31" s="8" t="s">
-        <v>308</v>
+        <v>420</v>
+      </c>
+      <c r="AA31" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>281</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="J32" t="s">
         <v>134</v>
@@ -5108,16 +5109,16 @@
         <v>221</v>
       </c>
       <c r="X32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z32" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA32" s="8" t="s">
-        <v>309</v>
+        <v>420</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="AB32">
         <v>1</v>
@@ -5149,7 +5150,7 @@
         <v>282</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="J33" t="s">
         <v>134</v>
@@ -5191,16 +5192,16 @@
         <v>221</v>
       </c>
       <c r="X33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Y33" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z33" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA33" s="8" t="s">
-        <v>310</v>
+        <v>420</v>
+      </c>
+      <c r="AA33" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="AB33">
         <v>1</v>
@@ -5232,7 +5233,7 @@
         <v>283</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="J34" t="s">
         <v>134</v>
@@ -5274,16 +5275,16 @@
         <v>221</v>
       </c>
       <c r="X34" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z34" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA34" s="8" t="s">
-        <v>311</v>
+        <v>420</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="AB34">
         <v>1</v>
@@ -5315,7 +5316,7 @@
         <v>284</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="J35" t="s">
         <v>134</v>
@@ -5357,16 +5358,16 @@
         <v>221</v>
       </c>
       <c r="X35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z35" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA35" s="8" t="s">
-        <v>312</v>
+        <v>420</v>
+      </c>
+      <c r="AA35" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -5398,7 +5399,7 @@
         <v>285</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="J36" t="s">
         <v>134</v>
@@ -5440,16 +5441,16 @@
         <v>221</v>
       </c>
       <c r="X36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z36" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA36" s="8" t="s">
-        <v>313</v>
+        <v>420</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>312</v>
       </c>
       <c r="AB36">
         <v>1</v>
@@ -5481,7 +5482,7 @@
         <v>286</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="J37" t="s">
         <v>134</v>
@@ -5523,16 +5524,16 @@
         <v>221</v>
       </c>
       <c r="X37" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Y37" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z37" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA37" s="8" t="s">
-        <v>314</v>
+        <v>420</v>
+      </c>
+      <c r="AA37" s="15" t="s">
+        <v>313</v>
       </c>
       <c r="AB37">
         <v>1</v>
@@ -5564,7 +5565,7 @@
         <v>287</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="J38" t="s">
         <v>134</v>
@@ -5606,16 +5607,16 @@
         <v>221</v>
       </c>
       <c r="X38" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Y38" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z38" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA38" s="8" t="s">
-        <v>315</v>
+        <v>420</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="AB38">
         <v>1</v>
@@ -5647,7 +5648,7 @@
         <v>288</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="J39" t="s">
         <v>134</v>
@@ -5689,16 +5690,16 @@
         <v>221</v>
       </c>
       <c r="X39" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Y39" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA39" s="8" t="s">
-        <v>316</v>
+        <v>420</v>
+      </c>
+      <c r="AA39" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="AB39">
         <v>1</v>
@@ -5730,7 +5731,7 @@
         <v>289</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="J40" t="s">
         <v>134</v>
@@ -5772,16 +5773,16 @@
         <v>221</v>
       </c>
       <c r="X40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y40" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z40" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA40" s="8" t="s">
-        <v>317</v>
+        <v>421</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -5813,7 +5814,7 @@
         <v>290</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="J41" t="s">
         <v>134</v>
@@ -5855,16 +5856,16 @@
         <v>221</v>
       </c>
       <c r="X41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z41" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA41" s="8" t="s">
-        <v>318</v>
+        <v>421</v>
+      </c>
+      <c r="AA41" s="15" t="s">
+        <v>317</v>
       </c>
       <c r="AB41">
         <v>1</v>
@@ -5896,7 +5897,7 @@
         <v>291</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="J42" t="s">
         <v>134</v>
@@ -5938,16 +5939,16 @@
         <v>221</v>
       </c>
       <c r="X42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Y42" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Z42" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="AA42" s="8" t="s">
-        <v>319</v>
+        <v>422</v>
+      </c>
+      <c r="AA42" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="AB42">
         <v>1</v>
@@ -5979,7 +5980,7 @@
         <v>292</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="J43" t="s">
         <v>134</v>
@@ -6021,16 +6022,16 @@
         <v>221</v>
       </c>
       <c r="X43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Y43" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Z43" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="AA43" s="8" t="s">
-        <v>320</v>
+        <v>422</v>
+      </c>
+      <c r="AA43" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="AB43">
         <v>1</v>
@@ -6062,7 +6063,7 @@
         <v>293</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="J44" t="s">
         <v>134</v>
@@ -6104,16 +6105,16 @@
         <v>221</v>
       </c>
       <c r="X44" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Y44" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Z44" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="AA44" s="8" t="s">
-        <v>321</v>
+        <v>422</v>
+      </c>
+      <c r="AA44" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="AB44">
         <v>1</v>
@@ -6145,7 +6146,7 @@
         <v>294</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="J45" t="s">
         <v>134</v>
@@ -6187,16 +6188,16 @@
         <v>221</v>
       </c>
       <c r="X45" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Y45" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Z45" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="AA45" s="8" t="s">
-        <v>322</v>
+        <v>422</v>
+      </c>
+      <c r="AA45" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="AB45">
         <v>1</v>
@@ -6228,7 +6229,7 @@
         <v>252</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="J46" t="s">
         <v>134</v>
@@ -6258,7 +6259,7 @@
         <v>230</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="V46" s="11" t="s">
         <v>220</v>
@@ -6267,11 +6268,11 @@
         <v>226</v>
       </c>
       <c r="X46" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
-      <c r="AA46" s="12"/>
+      <c r="AA46" s="16"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -6299,7 +6300,7 @@
         <v>253</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="J47" t="s">
         <v>134</v>
@@ -6329,7 +6330,7 @@
         <v>230</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="V47" s="11" t="s">
         <v>220</v>
@@ -6338,11 +6339,11 @@
         <v>226</v>
       </c>
       <c r="X47" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="12"/>
+      <c r="AA47" s="16"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -6370,7 +6371,7 @@
         <v>254</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="J48" t="s">
         <v>134</v>
@@ -6400,7 +6401,7 @@
         <v>230</v>
       </c>
       <c r="U48" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="V48" s="11" t="s">
         <v>220</v>
@@ -6409,11 +6410,11 @@
         <v>226</v>
       </c>
       <c r="X48" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
-      <c r="AA48" s="12"/>
+      <c r="AA48" s="16"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
@@ -6438,7 +6439,7 @@
         <v>255</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="J49" t="s">
         <v>134</v>
@@ -6468,7 +6469,7 @@
         <v>230</v>
       </c>
       <c r="U49" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="V49" s="11" t="s">
         <v>220</v>
@@ -6477,11 +6478,11 @@
         <v>226</v>
       </c>
       <c r="X49" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
+      <c r="AA49" s="16"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
@@ -6509,7 +6510,7 @@
         <v>256</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="J50" t="s">
         <v>134</v>
@@ -6539,7 +6540,7 @@
         <v>230</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="V50" s="11" t="s">
         <v>220</v>
@@ -6548,11 +6549,11 @@
         <v>226</v>
       </c>
       <c r="X50" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
+      <c r="AA50" s="16"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -6577,7 +6578,7 @@
         <v>257</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="J51" t="s">
         <v>134</v>
@@ -6607,7 +6608,7 @@
         <v>230</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="V51" s="11" t="s">
         <v>220</v>
@@ -6616,11 +6617,11 @@
         <v>226</v>
       </c>
       <c r="X51" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
+      <c r="AA51" s="16"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
@@ -6648,7 +6649,7 @@
         <v>258</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="J52" t="s">
         <v>134</v>
@@ -6678,7 +6679,7 @@
         <v>230</v>
       </c>
       <c r="U52" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="V52" s="11" t="s">
         <v>220</v>
@@ -6687,11 +6688,11 @@
         <v>226</v>
       </c>
       <c r="X52" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
+      <c r="AA52" s="16"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -6707,31 +6708,31 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F53" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G53" t="s">
         <v>202</v>
       </c>
       <c r="H53" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I53" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="J53" t="s">
         <v>89</v>
       </c>
       <c r="K53" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N53" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s">
         <v>96</v>
@@ -6740,7 +6741,7 @@
         <v>101</v>
       </c>
       <c r="Q53" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="R53" s="8" t="s">
         <v>224</v>
@@ -6752,7 +6753,7 @@
         <v>243</v>
       </c>
       <c r="U53" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="V53" s="11" t="s">
         <v>220</v>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itineris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E68F185-CF66-40B4-BF1A-E2F57A0E3C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2ED003-A9BE-41FF-B268-D181DE21700E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="472">
   <si>
     <t>https://deims.org/f30007c4-8a6e-4f11-ab87-569db54638fe</t>
   </si>
@@ -1435,15 +1435,6 @@
   </si>
   <si>
     <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Nich_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
-  </si>
-  <si>
-    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Chlorophyll_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
-  </si>
-  <si>
-    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Oxygen_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
-  </si>
-  <si>
-    <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/MedBFM4m_Nutrients_6869436a-80f4-4c6d-954b-a730b348d7ce_cut.nc</t>
   </si>
   <si>
     <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/E1_Chl_2022.dat</t>
@@ -2547,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="Y7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2692,7 +2683,7 @@
         <v>88</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J2" t="s">
         <v>89</v>
@@ -2731,7 +2722,7 @@
         <v>91</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J3" t="s">
         <v>99</v>
@@ -2776,7 +2767,7 @@
         <v>379</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J4" t="s">
         <v>89</v>
@@ -2850,7 +2841,7 @@
         <v>115</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J5" t="s">
         <v>134</v>
@@ -2933,7 +2924,7 @@
         <v>114</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J6" t="s">
         <v>134</v>
@@ -3016,7 +3007,7 @@
         <v>113</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J7" t="s">
         <v>134</v>
@@ -3099,7 +3090,7 @@
         <v>112</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J8" t="s">
         <v>134</v>
@@ -3182,7 +3173,7 @@
         <v>111</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J9" t="s">
         <v>134</v>
@@ -3265,7 +3256,7 @@
         <v>110</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J10" t="s">
         <v>135</v>
@@ -3336,7 +3327,7 @@
         <v>249</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J11" t="s">
         <v>134</v>
@@ -3407,7 +3398,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J12" t="s">
         <v>339</v>
@@ -3490,7 +3481,7 @@
         <v>118</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J13" t="s">
         <v>134</v>
@@ -3573,7 +3564,7 @@
         <v>119</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J14" t="s">
         <v>134</v>
@@ -3656,7 +3647,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J15" t="s">
         <v>134</v>
@@ -3739,7 +3730,7 @@
         <v>121</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J16" t="s">
         <v>134</v>
@@ -3822,7 +3813,7 @@
         <v>122</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J17" t="s">
         <v>134</v>
@@ -3905,7 +3896,7 @@
         <v>123</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J18" t="s">
         <v>134</v>
@@ -3988,7 +3979,7 @@
         <v>124</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J19" t="s">
         <v>134</v>
@@ -4071,7 +4062,7 @@
         <v>125</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J20" t="s">
         <v>134</v>
@@ -4154,7 +4145,7 @@
         <v>126</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J21" t="s">
         <v>134</v>
@@ -4237,7 +4228,7 @@
         <v>127</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J22" t="s">
         <v>134</v>
@@ -4320,7 +4311,7 @@
         <v>128</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J23" t="s">
         <v>134</v>
@@ -4403,7 +4394,7 @@
         <v>129</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J24" t="s">
         <v>134</v>
@@ -4486,7 +4477,7 @@
         <v>130</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J25" t="s">
         <v>134</v>
@@ -4569,7 +4560,7 @@
         <v>131</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J26" t="s">
         <v>134</v>
@@ -4652,7 +4643,7 @@
         <v>132</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J27" t="s">
         <v>134</v>
@@ -4735,7 +4726,7 @@
         <v>133</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J28" t="s">
         <v>134</v>
@@ -4818,7 +4809,7 @@
         <v>278</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J29" t="s">
         <v>134</v>
@@ -4865,9 +4856,7 @@
       <c r="Y29" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z29" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z29" s="8"/>
       <c r="AA29" s="15" t="s">
         <v>305</v>
       </c>
@@ -4901,7 +4890,7 @@
         <v>279</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J30" t="s">
         <v>134</v>
@@ -4948,9 +4937,7 @@
       <c r="Y30" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z30" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z30" s="8"/>
       <c r="AA30" s="15" t="s">
         <v>306</v>
       </c>
@@ -4984,7 +4971,7 @@
         <v>280</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J31" t="s">
         <v>134</v>
@@ -5031,9 +5018,7 @@
       <c r="Y31" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z31" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z31" s="8"/>
       <c r="AA31" s="15" t="s">
         <v>307</v>
       </c>
@@ -5067,7 +5052,7 @@
         <v>281</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J32" t="s">
         <v>134</v>
@@ -5114,9 +5099,7 @@
       <c r="Y32" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z32" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z32" s="8"/>
       <c r="AA32" s="15" t="s">
         <v>308</v>
       </c>
@@ -5150,7 +5133,7 @@
         <v>282</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J33" t="s">
         <v>134</v>
@@ -5197,9 +5180,7 @@
       <c r="Y33" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z33" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z33" s="8"/>
       <c r="AA33" s="15" t="s">
         <v>309</v>
       </c>
@@ -5233,7 +5214,7 @@
         <v>283</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J34" t="s">
         <v>134</v>
@@ -5280,9 +5261,7 @@
       <c r="Y34" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z34" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z34" s="8"/>
       <c r="AA34" s="15" t="s">
         <v>310</v>
       </c>
@@ -5316,7 +5295,7 @@
         <v>284</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J35" t="s">
         <v>134</v>
@@ -5363,9 +5342,7 @@
       <c r="Y35" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z35" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z35" s="8"/>
       <c r="AA35" s="15" t="s">
         <v>311</v>
       </c>
@@ -5399,7 +5376,7 @@
         <v>285</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J36" t="s">
         <v>134</v>
@@ -5446,9 +5423,7 @@
       <c r="Y36" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z36" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z36" s="8"/>
       <c r="AA36" s="15" t="s">
         <v>312</v>
       </c>
@@ -5482,7 +5457,7 @@
         <v>286</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J37" t="s">
         <v>134</v>
@@ -5529,9 +5504,7 @@
       <c r="Y37" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z37" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z37" s="8"/>
       <c r="AA37" s="15" t="s">
         <v>313</v>
       </c>
@@ -5565,7 +5538,7 @@
         <v>287</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J38" t="s">
         <v>134</v>
@@ -5612,9 +5585,7 @@
       <c r="Y38" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z38" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z38" s="8"/>
       <c r="AA38" s="15" t="s">
         <v>314</v>
       </c>
@@ -5648,7 +5619,7 @@
         <v>288</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J39" t="s">
         <v>134</v>
@@ -5695,9 +5666,7 @@
       <c r="Y39" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Z39" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="Z39" s="8"/>
       <c r="AA39" s="15" t="s">
         <v>315</v>
       </c>
@@ -5731,7 +5700,7 @@
         <v>289</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J40" t="s">
         <v>134</v>
@@ -5778,9 +5747,7 @@
       <c r="Y40" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="Z40" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="Z40" s="8"/>
       <c r="AA40" s="15" t="s">
         <v>316</v>
       </c>
@@ -5814,7 +5781,7 @@
         <v>290</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J41" t="s">
         <v>134</v>
@@ -5861,9 +5828,7 @@
       <c r="Y41" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="Z41" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="Z41" s="8"/>
       <c r="AA41" s="15" t="s">
         <v>317</v>
       </c>
@@ -5897,7 +5862,7 @@
         <v>291</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J42" t="s">
         <v>134</v>
@@ -5944,9 +5909,7 @@
       <c r="Y42" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="Z42" s="8" t="s">
-        <v>422</v>
-      </c>
+      <c r="Z42" s="8"/>
       <c r="AA42" s="15" t="s">
         <v>318</v>
       </c>
@@ -5980,7 +5943,7 @@
         <v>292</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J43" t="s">
         <v>134</v>
@@ -6027,9 +5990,7 @@
       <c r="Y43" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="Z43" s="8" t="s">
-        <v>422</v>
-      </c>
+      <c r="Z43" s="8"/>
       <c r="AA43" s="15" t="s">
         <v>319</v>
       </c>
@@ -6063,7 +6024,7 @@
         <v>293</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J44" t="s">
         <v>134</v>
@@ -6110,9 +6071,7 @@
       <c r="Y44" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="Z44" s="8" t="s">
-        <v>422</v>
-      </c>
+      <c r="Z44" s="8"/>
       <c r="AA44" s="15" t="s">
         <v>320</v>
       </c>
@@ -6146,7 +6105,7 @@
         <v>294</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J45" t="s">
         <v>134</v>
@@ -6193,9 +6152,7 @@
       <c r="Y45" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="Z45" s="8" t="s">
-        <v>422</v>
-      </c>
+      <c r="Z45" s="8"/>
       <c r="AA45" s="15" t="s">
         <v>321</v>
       </c>
@@ -6229,7 +6186,7 @@
         <v>252</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J46" t="s">
         <v>134</v>
@@ -6300,7 +6257,7 @@
         <v>253</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J47" t="s">
         <v>134</v>
@@ -6371,7 +6328,7 @@
         <v>254</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J48" t="s">
         <v>134</v>
@@ -6439,7 +6396,7 @@
         <v>255</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J49" t="s">
         <v>134</v>
@@ -6510,7 +6467,7 @@
         <v>256</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J50" t="s">
         <v>134</v>
@@ -6578,7 +6535,7 @@
         <v>257</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J51" t="s">
         <v>134</v>
@@ -6649,7 +6606,7 @@
         <v>258</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J52" t="s">
         <v>134</v>
@@ -6720,7 +6677,7 @@
         <v>387</v>
       </c>
       <c r="I53" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J53" t="s">
         <v>89</v>

--- a/data-raw/sites_list.xlsx
+++ b/data-raw/sites_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itineris\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costy\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2ED003-A9BE-41FF-B268-D181DE21700E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA5A70-D121-44EB-8357-2EFAA702345B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1410,15 +1410,6 @@
     <t>The dataset provides the date when the vegetation growing season starts in the time profile of the Plant Phenology Index. The start-of-season occurs, by definition, when the Plant Phenology Index value reaches 25% of the season amplitude during the green-up period.  The Plant Phenology Index is a physically based vegetation index for improved monitoring of plant phenology based on Sentinel 2 images.</t>
   </si>
   <si>
-    <t>rx</t>
-  </si>
-  <si>
-    <t>ini_chl_ts</t>
-  </si>
-  <si>
-    <t>init_chl_cs</t>
-  </si>
-  <si>
     <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/EOBS_tg_9b1d144a-dc37-4b0e-8cda-1dda1d7667da_cut.nc</t>
   </si>
   <si>
@@ -1591,6 +1582,15 @@
   </si>
   <si>
     <t>/home/jovyan/itineris-dataspace/VRE_EV/DATI/Water chemistry_Lago Maggiore_Italy.csv</t>
+  </si>
+  <si>
+    <t>tx</t>
+  </si>
+  <si>
+    <t>int_chl_ts</t>
+  </si>
+  <si>
+    <t>int_chl_cs</t>
   </si>
 </sst>
 </file>
@@ -2538,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77B816B-8EFB-A44F-8A3F-6C6CC0FEF266}">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2683,7 +2683,7 @@
         <v>88</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J2" t="s">
         <v>89</v>
@@ -2722,7 +2722,7 @@
         <v>91</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J3" t="s">
         <v>99</v>
@@ -2767,7 +2767,7 @@
         <v>379</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J4" t="s">
         <v>89</v>
@@ -2841,7 +2841,7 @@
         <v>115</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J5" t="s">
         <v>134</v>
@@ -2889,7 +2889,7 @@
         <v>297</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AA5" t="s">
         <v>302</v>
@@ -2924,7 +2924,7 @@
         <v>114</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J6" t="s">
         <v>134</v>
@@ -2972,7 +2972,7 @@
         <v>298</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>322</v>
@@ -3007,7 +3007,7 @@
         <v>113</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J7" t="s">
         <v>134</v>
@@ -3055,10 +3055,10 @@
         <v>299</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -3090,7 +3090,7 @@
         <v>112</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J8" t="s">
         <v>134</v>
@@ -3138,7 +3138,7 @@
         <v>300</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AA8" s="15" t="s">
         <v>303</v>
@@ -3173,7 +3173,7 @@
         <v>111</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J9" t="s">
         <v>134</v>
@@ -3221,7 +3221,7 @@
         <v>301</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AA9" s="15" t="s">
         <v>304</v>
@@ -3256,7 +3256,7 @@
         <v>110</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J10" t="s">
         <v>135</v>
@@ -3327,7 +3327,7 @@
         <v>249</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J11" t="s">
         <v>134</v>
@@ -3398,7 +3398,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J12" t="s">
         <v>339</v>
@@ -3446,7 +3446,7 @@
         <v>338</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA12" s="15" t="s">
         <v>323</v>
@@ -3481,7 +3481,7 @@
         <v>118</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J13" t="s">
         <v>134</v>
@@ -3529,7 +3529,7 @@
         <v>338</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA13" s="15" t="s">
         <v>326</v>
@@ -3564,7 +3564,7 @@
         <v>119</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J14" t="s">
         <v>134</v>
@@ -3612,7 +3612,7 @@
         <v>338</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA14" s="15" t="s">
         <v>331</v>
@@ -3647,7 +3647,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J15" t="s">
         <v>134</v>
@@ -3695,10 +3695,10 @@
         <v>338</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA15" s="15" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="AB15">
         <v>1</v>
@@ -3730,7 +3730,7 @@
         <v>121</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J16" t="s">
         <v>134</v>
@@ -3778,7 +3778,7 @@
         <v>338</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA16" s="15" t="s">
         <v>332</v>
@@ -3813,7 +3813,7 @@
         <v>122</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J17" t="s">
         <v>134</v>
@@ -3861,7 +3861,7 @@
         <v>338</v>
       </c>
       <c r="Z17" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA17" s="15" t="s">
         <v>324</v>
@@ -3896,7 +3896,7 @@
         <v>123</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J18" t="s">
         <v>134</v>
@@ -3944,7 +3944,7 @@
         <v>338</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA18" s="15" t="s">
         <v>327</v>
@@ -3979,7 +3979,7 @@
         <v>124</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J19" t="s">
         <v>134</v>
@@ -4027,7 +4027,7 @@
         <v>338</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA19" s="15" t="s">
         <v>328</v>
@@ -4062,7 +4062,7 @@
         <v>125</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J20" t="s">
         <v>134</v>
@@ -4110,10 +4110,10 @@
         <v>338</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="AB20">
         <v>1</v>
@@ -4145,7 +4145,7 @@
         <v>126</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J21" t="s">
         <v>134</v>
@@ -4193,7 +4193,7 @@
         <v>338</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA21" s="15" t="s">
         <v>333</v>
@@ -4228,7 +4228,7 @@
         <v>127</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J22" t="s">
         <v>134</v>
@@ -4276,7 +4276,7 @@
         <v>338</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA22" s="15" t="s">
         <v>325</v>
@@ -4311,7 +4311,7 @@
         <v>128</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J23" t="s">
         <v>134</v>
@@ -4359,7 +4359,7 @@
         <v>338</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA23" s="15" t="s">
         <v>329</v>
@@ -4394,7 +4394,7 @@
         <v>129</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J24" t="s">
         <v>134</v>
@@ -4442,7 +4442,7 @@
         <v>338</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA24" s="15" t="s">
         <v>330</v>
@@ -4477,7 +4477,7 @@
         <v>130</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J25" t="s">
         <v>134</v>
@@ -4525,7 +4525,7 @@
         <v>338</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA25" s="15" t="s">
         <v>335</v>
@@ -4560,7 +4560,7 @@
         <v>131</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J26" t="s">
         <v>134</v>
@@ -4608,7 +4608,7 @@
         <v>338</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA26" s="15" t="s">
         <v>334</v>
@@ -4643,7 +4643,7 @@
         <v>132</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J27" t="s">
         <v>134</v>
@@ -4691,7 +4691,7 @@
         <v>338</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA27" s="15" t="s">
         <v>336</v>
@@ -4726,7 +4726,7 @@
         <v>133</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J28" t="s">
         <v>134</v>
@@ -4774,7 +4774,7 @@
         <v>338</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA28" s="15" t="s">
         <v>337</v>
@@ -4809,7 +4809,7 @@
         <v>278</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J29" t="s">
         <v>134</v>
@@ -4890,7 +4890,7 @@
         <v>279</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J30" t="s">
         <v>134</v>
@@ -4971,7 +4971,7 @@
         <v>280</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J31" t="s">
         <v>134</v>
@@ -5052,7 +5052,7 @@
         <v>281</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J32" t="s">
         <v>134</v>
@@ -5133,7 +5133,7 @@
         <v>282</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J33" t="s">
         <v>134</v>
@@ -5214,7 +5214,7 @@
         <v>283</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J34" t="s">
         <v>134</v>
@@ -5295,7 +5295,7 @@
         <v>284</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J35" t="s">
         <v>134</v>
@@ -5376,7 +5376,7 @@
         <v>285</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J36" t="s">
         <v>134</v>
@@ -5457,7 +5457,7 @@
         <v>286</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J37" t="s">
         <v>134</v>
@@ -5538,7 +5538,7 @@
         <v>287</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J38" t="s">
         <v>134</v>
@@ -5619,7 +5619,7 @@
         <v>288</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J39" t="s">
         <v>134</v>
@@ -5700,7 +5700,7 @@
         <v>289</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J40" t="s">
         <v>134</v>
@@ -5781,7 +5781,7 @@
         <v>290</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J41" t="s">
         <v>134</v>
@@ -5862,7 +5862,7 @@
         <v>291</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J42" t="s">
         <v>134</v>
@@ -5943,7 +5943,7 @@
         <v>292</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J43" t="s">
         <v>134</v>
@@ -6024,7 +6024,7 @@
         <v>293</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J44" t="s">
         <v>134</v>
@@ -6105,7 +6105,7 @@
         <v>294</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J45" t="s">
         <v>134</v>
@@ -6186,7 +6186,7 @@
         <v>252</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J46" t="s">
         <v>134</v>
@@ -6257,7 +6257,7 @@
         <v>253</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J47" t="s">
         <v>134</v>
@@ -6328,7 +6328,7 @@
         <v>254</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J48" t="s">
         <v>134</v>
@@ -6396,7 +6396,7 @@
         <v>255</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J49" t="s">
         <v>134</v>
@@ -6467,7 +6467,7 @@
         <v>256</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J50" t="s">
         <v>134</v>
@@ -6535,7 +6535,7 @@
         <v>257</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J51" t="s">
         <v>134</v>
@@ -6606,7 +6606,7 @@
         <v>258</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J52" t="s">
         <v>134</v>
@@ -6677,7 +6677,7 @@
         <v>387</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J53" t="s">
         <v>89</v>
